--- a/DATA__GEN2-B.xlsx
+++ b/DATA__GEN2-B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Chah\Desktop\gen4-V1-deflection-tool\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://artedrone.sharepoint.com/sites/SharepointArtedrone/Documents/12. Projets partagés externes/1-HEI/Ahmed-WorkSpace/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F96709-88C0-405B-9402-F5F6C465BB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{72F96709-88C0-405B-9402-F5F6C465BB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11E9F448-E86A-4770-8DA4-C464B79C3C31}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="20">
   <si>
     <t>Actuation Angle</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>Microrobot</t>
-  </si>
-  <si>
-    <t>90°</t>
-  </si>
-  <si>
-    <t>45°</t>
   </si>
   <si>
     <t>GEN-2B</t>
@@ -681,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E338FDE-009B-4A2A-8A7D-E8F87983CA18}">
   <dimension ref="A1:O625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A576" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315:B625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>1</v>
@@ -720,33 +714,33 @@
         <v>8</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="13">
+        <v>90</v>
       </c>
       <c r="C2" s="14">
         <v>180</v>
@@ -767,7 +761,7 @@
         <v>27.2</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -790,10 +784,10 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>90</v>
       </c>
       <c r="C3" s="1">
         <v>180</v>
@@ -816,10 +810,10 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>90</v>
       </c>
       <c r="C4" s="1">
         <v>180</v>
@@ -842,10 +836,10 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>90</v>
       </c>
       <c r="C5" s="1">
         <v>180</v>
@@ -868,10 +862,10 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>90</v>
       </c>
       <c r="C6" s="1">
         <v>180</v>
@@ -894,10 +888,10 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>90</v>
       </c>
       <c r="C7" s="1">
         <v>180</v>
@@ -920,10 +914,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>90</v>
       </c>
       <c r="C8" s="1">
         <v>180</v>
@@ -946,10 +940,10 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="6">
+        <v>90</v>
       </c>
       <c r="C9" s="1">
         <v>180</v>
@@ -972,10 +966,10 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>90</v>
       </c>
       <c r="C10" s="1">
         <v>180</v>
@@ -998,10 +992,10 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>90</v>
       </c>
       <c r="C11" s="1">
         <v>180</v>
@@ -1024,10 +1018,10 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>90</v>
       </c>
       <c r="C12" s="1">
         <v>180</v>
@@ -1050,10 +1044,10 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>90</v>
       </c>
       <c r="C13" s="1">
         <v>180</v>
@@ -1076,10 +1070,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>90</v>
       </c>
       <c r="C14" s="1">
         <v>180</v>
@@ -1102,10 +1096,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>90</v>
       </c>
       <c r="C15" s="1">
         <v>180</v>
@@ -1128,10 +1122,10 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>90</v>
       </c>
       <c r="C16" s="1">
         <v>180</v>
@@ -1154,10 +1148,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>90</v>
       </c>
       <c r="C17" s="1">
         <v>180</v>
@@ -1180,10 +1174,10 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="6">
+        <v>90</v>
       </c>
       <c r="C18" s="1">
         <v>180</v>
@@ -1206,10 +1200,10 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B19" s="6">
+        <v>90</v>
       </c>
       <c r="C19" s="1">
         <v>180</v>
@@ -1232,10 +1226,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B20" s="6">
+        <v>90</v>
       </c>
       <c r="C20" s="1">
         <v>180</v>
@@ -1258,10 +1252,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="6">
+        <v>90</v>
       </c>
       <c r="C21" s="1">
         <v>180</v>
@@ -1284,10 +1278,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="6">
+        <v>90</v>
       </c>
       <c r="C22" s="1">
         <v>180</v>
@@ -1310,10 +1304,10 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B23" s="6">
+        <v>90</v>
       </c>
       <c r="C23" s="1">
         <v>180</v>
@@ -1336,10 +1330,10 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="6">
+        <v>90</v>
       </c>
       <c r="C24" s="1">
         <v>180</v>
@@ -1362,10 +1356,10 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B25" s="6">
+        <v>90</v>
       </c>
       <c r="C25" s="1">
         <v>180</v>
@@ -1388,10 +1382,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B26" s="6">
+        <v>90</v>
       </c>
       <c r="C26" s="1">
         <v>180</v>
@@ -1414,10 +1408,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B27" s="6">
+        <v>90</v>
       </c>
       <c r="C27" s="1">
         <v>180</v>
@@ -1440,10 +1434,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B28" s="6">
+        <v>90</v>
       </c>
       <c r="C28" s="1">
         <v>180</v>
@@ -1466,10 +1460,10 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B29" s="6">
+        <v>90</v>
       </c>
       <c r="C29" s="1">
         <v>180</v>
@@ -1492,10 +1486,10 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B30" s="6">
+        <v>90</v>
       </c>
       <c r="C30" s="1">
         <v>180</v>
@@ -1518,10 +1512,10 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="6">
+        <v>90</v>
       </c>
       <c r="C31" s="1">
         <v>180</v>
@@ -1544,10 +1538,10 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B32" s="6">
+        <v>90</v>
       </c>
       <c r="C32" s="1">
         <v>180</v>
@@ -1570,10 +1564,10 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B33" s="6">
+        <v>90</v>
       </c>
       <c r="C33" s="1">
         <v>180</v>
@@ -1596,10 +1590,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B34" s="6">
+        <v>90</v>
       </c>
       <c r="C34" s="1">
         <v>180</v>
@@ -1622,10 +1616,10 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B35" s="6">
+        <v>90</v>
       </c>
       <c r="C35" s="1">
         <v>180</v>
@@ -1648,10 +1642,10 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B36" s="6">
+        <v>90</v>
       </c>
       <c r="C36" s="1">
         <v>180</v>
@@ -1674,10 +1668,10 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B37" s="6">
+        <v>90</v>
       </c>
       <c r="C37" s="1">
         <v>180</v>
@@ -1700,10 +1694,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B38" s="6">
+        <v>90</v>
       </c>
       <c r="C38" s="1">
         <v>180</v>
@@ -1726,10 +1720,10 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B39" s="6">
+        <v>90</v>
       </c>
       <c r="C39" s="1">
         <v>180</v>
@@ -1752,10 +1746,10 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B40" s="6">
+        <v>90</v>
       </c>
       <c r="C40" s="1">
         <v>180</v>
@@ -1778,10 +1772,10 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B41" s="6">
+        <v>90</v>
       </c>
       <c r="C41" s="1">
         <v>180</v>
@@ -1804,10 +1798,10 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B42" s="6">
+        <v>90</v>
       </c>
       <c r="C42" s="1">
         <v>180</v>
@@ -1830,10 +1824,10 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B43" s="6">
+        <v>90</v>
       </c>
       <c r="C43" s="1">
         <v>180</v>
@@ -1856,10 +1850,10 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B44" s="6">
+        <v>90</v>
       </c>
       <c r="C44" s="1">
         <v>180</v>
@@ -1882,10 +1876,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B45" s="6">
+        <v>90</v>
       </c>
       <c r="C45" s="1">
         <v>180</v>
@@ -1908,10 +1902,10 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B46" s="6">
+        <v>90</v>
       </c>
       <c r="C46" s="1">
         <v>180</v>
@@ -1934,10 +1928,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B47" s="6">
+        <v>90</v>
       </c>
       <c r="C47" s="1">
         <v>180</v>
@@ -1960,10 +1954,10 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B48" s="6">
+        <v>90</v>
       </c>
       <c r="C48" s="1">
         <v>180</v>
@@ -1986,10 +1980,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B49" s="6">
+        <v>90</v>
       </c>
       <c r="C49" s="1">
         <v>180</v>
@@ -2012,10 +2006,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B50" s="6">
+        <v>90</v>
       </c>
       <c r="C50" s="1">
         <v>180</v>
@@ -2038,10 +2032,10 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B51" s="6">
+        <v>90</v>
       </c>
       <c r="C51" s="1">
         <v>180</v>
@@ -2064,10 +2058,10 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B52" s="6">
+        <v>90</v>
       </c>
       <c r="C52" s="1">
         <v>180</v>
@@ -2090,10 +2084,10 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B53" s="6">
+        <v>90</v>
       </c>
       <c r="C53" s="1">
         <v>180</v>
@@ -2116,10 +2110,10 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B54" s="6">
+        <v>90</v>
       </c>
       <c r="C54" s="1">
         <v>180</v>
@@ -2142,10 +2136,10 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B55" s="6">
+        <v>90</v>
       </c>
       <c r="C55" s="1">
         <v>180</v>
@@ -2168,10 +2162,10 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B56" s="6">
+        <v>90</v>
       </c>
       <c r="C56" s="1">
         <v>180</v>
@@ -2194,10 +2188,10 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B57" s="6">
+        <v>90</v>
       </c>
       <c r="C57" s="1">
         <v>180</v>
@@ -2220,10 +2214,10 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B58" s="6">
+        <v>90</v>
       </c>
       <c r="C58" s="1">
         <v>180</v>
@@ -2246,10 +2240,10 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B59" s="6">
+        <v>90</v>
       </c>
       <c r="C59" s="1">
         <v>180</v>
@@ -2272,10 +2266,10 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B60" s="6">
+        <v>90</v>
       </c>
       <c r="C60" s="1">
         <v>180</v>
@@ -2298,10 +2292,10 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B61" s="6">
+        <v>90</v>
       </c>
       <c r="C61" s="1">
         <v>180</v>
@@ -2324,10 +2318,10 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B62" s="6">
+        <v>90</v>
       </c>
       <c r="C62" s="1">
         <v>180</v>
@@ -2350,10 +2344,10 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B63" s="6">
+        <v>90</v>
       </c>
       <c r="C63" s="1">
         <v>180</v>
@@ -2376,10 +2370,10 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B64" s="6">
+        <v>90</v>
       </c>
       <c r="C64" s="1">
         <v>180</v>
@@ -2402,10 +2396,10 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B65" s="6">
+        <v>90</v>
       </c>
       <c r="C65" s="1">
         <v>180</v>
@@ -2428,10 +2422,10 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B66" s="6">
+        <v>90</v>
       </c>
       <c r="C66" s="1">
         <v>180</v>
@@ -2454,10 +2448,10 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B67" s="6">
+        <v>90</v>
       </c>
       <c r="C67" s="1">
         <v>180</v>
@@ -2480,10 +2474,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B68" s="6">
+        <v>90</v>
       </c>
       <c r="C68" s="1">
         <v>180</v>
@@ -2506,10 +2500,10 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B69" s="6">
+        <v>90</v>
       </c>
       <c r="C69" s="1">
         <v>180</v>
@@ -2532,10 +2526,10 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B70" s="6">
+        <v>90</v>
       </c>
       <c r="C70" s="1">
         <v>180</v>
@@ -2558,10 +2552,10 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B71" s="6">
+        <v>90</v>
       </c>
       <c r="C71" s="1">
         <v>180</v>
@@ -2584,10 +2578,10 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B72" s="6">
+        <v>90</v>
       </c>
       <c r="C72" s="1">
         <v>180</v>
@@ -2610,10 +2604,10 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B73" s="6">
+        <v>90</v>
       </c>
       <c r="C73" s="1">
         <v>180</v>
@@ -2636,10 +2630,10 @@
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B74" s="6">
+        <v>90</v>
       </c>
       <c r="C74" s="1">
         <v>180</v>
@@ -2662,10 +2656,10 @@
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B75" s="6">
+        <v>90</v>
       </c>
       <c r="C75" s="1">
         <v>180</v>
@@ -2688,10 +2682,10 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B76" s="6">
+        <v>90</v>
       </c>
       <c r="C76" s="1">
         <v>180</v>
@@ -2714,10 +2708,10 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B77" s="6">
+        <v>90</v>
       </c>
       <c r="C77" s="1">
         <v>180</v>
@@ -2740,10 +2734,10 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B78" s="6">
+        <v>90</v>
       </c>
       <c r="C78" s="1">
         <v>180</v>
@@ -2766,10 +2760,10 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B79" s="6">
+        <v>90</v>
       </c>
       <c r="C79" s="1">
         <v>180</v>
@@ -2792,10 +2786,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B80" s="6">
+        <v>90</v>
       </c>
       <c r="C80" s="1">
         <v>180</v>
@@ -2818,10 +2812,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B81" s="6">
+        <v>90</v>
       </c>
       <c r="C81" s="1">
         <v>180</v>
@@ -2844,10 +2838,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B82" s="6">
+        <v>90</v>
       </c>
       <c r="C82" s="1">
         <v>180</v>
@@ -2870,10 +2864,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B83" s="6">
+        <v>90</v>
       </c>
       <c r="C83" s="1">
         <v>180</v>
@@ -2896,10 +2890,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B84" s="6">
+        <v>90</v>
       </c>
       <c r="C84" s="1">
         <v>180</v>
@@ -2922,10 +2916,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B85" s="6">
+        <v>90</v>
       </c>
       <c r="C85" s="1">
         <v>180</v>
@@ -2948,10 +2942,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B86" s="6">
+        <v>90</v>
       </c>
       <c r="C86" s="1">
         <v>180</v>
@@ -2974,10 +2968,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B87" s="6">
+        <v>90</v>
       </c>
       <c r="C87" s="1">
         <v>180</v>
@@ -3000,10 +2994,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B88" s="6">
+        <v>90</v>
       </c>
       <c r="C88" s="1">
         <v>180</v>
@@ -3026,10 +3020,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B89" s="6">
+        <v>90</v>
       </c>
       <c r="C89" s="1">
         <v>180</v>
@@ -3052,10 +3046,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B90" s="6">
+        <v>90</v>
       </c>
       <c r="C90" s="1">
         <v>180</v>
@@ -3078,10 +3072,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B91" s="6">
+        <v>90</v>
       </c>
       <c r="C91" s="1">
         <v>180</v>
@@ -3104,10 +3098,10 @@
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B92" s="6">
+        <v>90</v>
       </c>
       <c r="C92" s="1">
         <v>180</v>
@@ -3130,10 +3124,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B93" s="6">
+        <v>90</v>
       </c>
       <c r="C93" s="1">
         <v>180</v>
@@ -3156,10 +3150,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B94" s="6">
+        <v>90</v>
       </c>
       <c r="C94" s="1">
         <v>180</v>
@@ -3182,10 +3176,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B95" s="6">
+        <v>90</v>
       </c>
       <c r="C95" s="1">
         <v>180</v>
@@ -3208,10 +3202,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B96" s="6">
+        <v>90</v>
       </c>
       <c r="C96" s="1">
         <v>180</v>
@@ -3234,10 +3228,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B97" s="6">
+        <v>90</v>
       </c>
       <c r="C97" s="1">
         <v>180</v>
@@ -3260,10 +3254,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B98" s="6">
+        <v>90</v>
       </c>
       <c r="C98" s="1">
         <v>180</v>
@@ -3286,10 +3280,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B99" s="6">
+        <v>90</v>
       </c>
       <c r="C99" s="1">
         <v>180</v>
@@ -3312,10 +3306,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B100" s="6">
+        <v>90</v>
       </c>
       <c r="C100" s="1">
         <v>180</v>
@@ -3338,10 +3332,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B101" s="6">
+        <v>90</v>
       </c>
       <c r="C101" s="1">
         <v>180</v>
@@ -3364,10 +3358,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B102" s="6">
+        <v>90</v>
       </c>
       <c r="C102" s="1">
         <v>180</v>
@@ -3390,10 +3384,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B103" s="6">
+        <v>90</v>
       </c>
       <c r="C103" s="1">
         <v>180</v>
@@ -3416,10 +3410,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B104" s="6">
+        <v>90</v>
       </c>
       <c r="C104" s="1">
         <v>180</v>
@@ -3442,10 +3436,10 @@
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B105" s="6">
+        <v>90</v>
       </c>
       <c r="C105" s="1">
         <v>180</v>
@@ -3468,10 +3462,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B106" s="6">
+        <v>90</v>
       </c>
       <c r="C106" s="1">
         <v>180</v>
@@ -3494,10 +3488,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B107" s="6">
+        <v>90</v>
       </c>
       <c r="C107" s="1">
         <v>180</v>
@@ -3520,10 +3514,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B108" s="6">
+        <v>90</v>
       </c>
       <c r="C108" s="1">
         <v>180</v>
@@ -3546,10 +3540,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B109" s="6">
+        <v>90</v>
       </c>
       <c r="C109" s="1">
         <v>180</v>
@@ -3572,10 +3566,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B110" s="6">
+        <v>90</v>
       </c>
       <c r="C110" s="1">
         <v>180</v>
@@ -3598,10 +3592,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B111" s="6">
+        <v>90</v>
       </c>
       <c r="C111" s="1">
         <v>180</v>
@@ -3624,10 +3618,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B112" s="6">
+        <v>90</v>
       </c>
       <c r="C112" s="1">
         <v>180</v>
@@ -3650,10 +3644,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B113" s="6">
+        <v>90</v>
       </c>
       <c r="C113" s="1">
         <v>180</v>
@@ -3676,10 +3670,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B114" s="6">
+        <v>90</v>
       </c>
       <c r="C114" s="1">
         <v>180</v>
@@ -3702,10 +3696,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B115" s="6">
+        <v>90</v>
       </c>
       <c r="C115" s="1">
         <v>180</v>
@@ -3728,10 +3722,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B116" s="6">
+        <v>90</v>
       </c>
       <c r="C116" s="1">
         <v>180</v>
@@ -3754,10 +3748,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B117" s="6">
+        <v>90</v>
       </c>
       <c r="C117" s="1">
         <v>180</v>
@@ -3780,10 +3774,10 @@
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B118" s="6">
+        <v>90</v>
       </c>
       <c r="C118" s="1">
         <v>180</v>
@@ -3806,10 +3800,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B119" s="6">
+        <v>90</v>
       </c>
       <c r="C119" s="1">
         <v>180</v>
@@ -3832,10 +3826,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B120" s="6">
+        <v>90</v>
       </c>
       <c r="C120" s="1">
         <v>180</v>
@@ -3858,10 +3852,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B121" s="6">
+        <v>90</v>
       </c>
       <c r="C121" s="1">
         <v>180</v>
@@ -3884,10 +3878,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B122" s="6">
+        <v>90</v>
       </c>
       <c r="C122" s="1">
         <v>180</v>
@@ -3910,10 +3904,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B123" s="6">
+        <v>90</v>
       </c>
       <c r="C123" s="1">
         <v>180</v>
@@ -3936,10 +3930,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B124" s="6">
+        <v>90</v>
       </c>
       <c r="C124" s="1">
         <v>180</v>
@@ -3962,10 +3956,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B125" s="6">
+        <v>90</v>
       </c>
       <c r="C125" s="1">
         <v>180</v>
@@ -3988,10 +3982,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B126" s="6">
+        <v>90</v>
       </c>
       <c r="C126" s="1">
         <v>180</v>
@@ -4014,10 +4008,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B127" s="6">
+        <v>90</v>
       </c>
       <c r="C127" s="1">
         <v>180</v>
@@ -4040,10 +4034,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B128" s="6">
+        <v>90</v>
       </c>
       <c r="C128" s="1">
         <v>180</v>
@@ -4066,10 +4060,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B129" s="6">
+        <v>90</v>
       </c>
       <c r="C129" s="1">
         <v>180</v>
@@ -4092,10 +4086,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B130" s="6">
+        <v>90</v>
       </c>
       <c r="C130" s="1">
         <v>180</v>
@@ -4118,10 +4112,10 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B131" s="6">
+        <v>90</v>
       </c>
       <c r="C131" s="1">
         <v>180</v>
@@ -4144,10 +4138,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B132" s="6">
+        <v>90</v>
       </c>
       <c r="C132" s="1">
         <v>180</v>
@@ -4170,10 +4164,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B133" s="6">
+        <v>90</v>
       </c>
       <c r="C133" s="1">
         <v>180</v>
@@ -4196,10 +4190,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B134" s="6">
+        <v>90</v>
       </c>
       <c r="C134" s="1">
         <v>180</v>
@@ -4222,10 +4216,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B135" s="6">
+        <v>90</v>
       </c>
       <c r="C135" s="1">
         <v>180</v>
@@ -4248,10 +4242,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B136" s="6">
+        <v>90</v>
       </c>
       <c r="C136" s="1">
         <v>180</v>
@@ -4274,10 +4268,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B137" s="6">
+        <v>90</v>
       </c>
       <c r="C137" s="1">
         <v>180</v>
@@ -4300,10 +4294,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B138" s="6">
+        <v>90</v>
       </c>
       <c r="C138" s="1">
         <v>180</v>
@@ -4326,10 +4320,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B139" s="6">
+        <v>90</v>
       </c>
       <c r="C139" s="1">
         <v>180</v>
@@ -4352,10 +4346,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B140" s="6">
+        <v>90</v>
       </c>
       <c r="C140" s="1">
         <v>180</v>
@@ -4378,10 +4372,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B141" s="6">
+        <v>90</v>
       </c>
       <c r="C141" s="1">
         <v>180</v>
@@ -4404,10 +4398,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B142" s="6">
+        <v>90</v>
       </c>
       <c r="C142" s="1">
         <v>180</v>
@@ -4430,10 +4424,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>13</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B143" s="6">
+        <v>90</v>
       </c>
       <c r="C143" s="1">
         <v>180</v>
@@ -4456,10 +4450,10 @@
     </row>
     <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B144" s="6">
+        <v>90</v>
       </c>
       <c r="C144" s="1">
         <v>180</v>
@@ -4482,10 +4476,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B145" s="6">
+        <v>90</v>
       </c>
       <c r="C145" s="1">
         <v>180</v>
@@ -4508,10 +4502,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B146" s="6">
+        <v>90</v>
       </c>
       <c r="C146" s="1">
         <v>180</v>
@@ -4534,10 +4528,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B147" s="6">
+        <v>90</v>
       </c>
       <c r="C147" s="1">
         <v>180</v>
@@ -4560,10 +4554,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B148" s="6">
+        <v>90</v>
       </c>
       <c r="C148" s="1">
         <v>180</v>
@@ -4586,10 +4580,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B149" s="6">
+        <v>90</v>
       </c>
       <c r="C149" s="1">
         <v>180</v>
@@ -4612,10 +4606,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>13</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B150" s="6">
+        <v>90</v>
       </c>
       <c r="C150" s="1">
         <v>180</v>
@@ -4638,10 +4632,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B151" s="6">
+        <v>90</v>
       </c>
       <c r="C151" s="1">
         <v>180</v>
@@ -4664,10 +4658,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B152" s="6">
+        <v>90</v>
       </c>
       <c r="C152" s="1">
         <v>180</v>
@@ -4690,10 +4684,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B153" s="6">
+        <v>90</v>
       </c>
       <c r="C153" s="1">
         <v>180</v>
@@ -4716,10 +4710,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>13</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B154" s="6">
+        <v>90</v>
       </c>
       <c r="C154" s="1">
         <v>180</v>
@@ -4742,10 +4736,10 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>13</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B155" s="6">
+        <v>90</v>
       </c>
       <c r="C155" s="1">
         <v>180</v>
@@ -4768,10 +4762,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B156" s="6">
+        <v>90</v>
       </c>
       <c r="C156" s="1">
         <v>180</v>
@@ -4794,10 +4788,10 @@
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>13</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B157" s="6">
+        <v>90</v>
       </c>
       <c r="C157" s="1">
         <v>180</v>
@@ -4820,10 +4814,10 @@
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>13</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B158" s="6">
+        <v>90</v>
       </c>
       <c r="C158" s="1">
         <v>0</v>
@@ -4846,10 +4840,10 @@
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>13</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B159" s="6">
+        <v>90</v>
       </c>
       <c r="C159" s="1">
         <v>0</v>
@@ -4872,10 +4866,10 @@
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>13</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B160" s="6">
+        <v>90</v>
       </c>
       <c r="C160" s="1">
         <v>0</v>
@@ -4898,10 +4892,10 @@
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>13</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B161" s="6">
+        <v>90</v>
       </c>
       <c r="C161" s="1">
         <v>0</v>
@@ -4924,10 +4918,10 @@
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>13</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B162" s="6">
+        <v>90</v>
       </c>
       <c r="C162" s="1">
         <v>0</v>
@@ -4950,10 +4944,10 @@
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>13</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B163" s="6">
+        <v>90</v>
       </c>
       <c r="C163" s="1">
         <v>0</v>
@@ -4976,10 +4970,10 @@
     </row>
     <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>13</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B164" s="6">
+        <v>90</v>
       </c>
       <c r="C164" s="1">
         <v>0</v>
@@ -5002,10 +4996,10 @@
     </row>
     <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>13</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B165" s="6">
+        <v>90</v>
       </c>
       <c r="C165" s="1">
         <v>0</v>
@@ -5028,10 +5022,10 @@
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>13</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B166" s="6">
+        <v>90</v>
       </c>
       <c r="C166" s="1">
         <v>0</v>
@@ -5054,10 +5048,10 @@
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>13</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B167" s="6">
+        <v>90</v>
       </c>
       <c r="C167" s="1">
         <v>0</v>
@@ -5080,10 +5074,10 @@
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>13</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B168" s="6">
+        <v>90</v>
       </c>
       <c r="C168" s="1">
         <v>0</v>
@@ -5106,10 +5100,10 @@
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>13</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B169" s="6">
+        <v>90</v>
       </c>
       <c r="C169" s="1">
         <v>0</v>
@@ -5132,10 +5126,10 @@
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>13</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B170" s="6">
+        <v>90</v>
       </c>
       <c r="C170" s="1">
         <v>0</v>
@@ -5158,10 +5152,10 @@
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>13</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B171" s="6">
+        <v>90</v>
       </c>
       <c r="C171" s="1">
         <v>0</v>
@@ -5184,10 +5178,10 @@
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>13</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B172" s="6">
+        <v>90</v>
       </c>
       <c r="C172" s="1">
         <v>0</v>
@@ -5210,10 +5204,10 @@
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>13</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B173" s="6">
+        <v>90</v>
       </c>
       <c r="C173" s="1">
         <v>0</v>
@@ -5236,10 +5230,10 @@
     </row>
     <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>13</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B174" s="6">
+        <v>90</v>
       </c>
       <c r="C174" s="1">
         <v>0</v>
@@ -5262,10 +5256,10 @@
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B175" s="6">
+        <v>90</v>
       </c>
       <c r="C175" s="1">
         <v>0</v>
@@ -5288,10 +5282,10 @@
     </row>
     <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>13</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B176" s="6">
+        <v>90</v>
       </c>
       <c r="C176" s="1">
         <v>0</v>
@@ -5314,10 +5308,10 @@
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>13</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B177" s="6">
+        <v>90</v>
       </c>
       <c r="C177" s="1">
         <v>0</v>
@@ -5340,10 +5334,10 @@
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>13</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B178" s="6">
+        <v>90</v>
       </c>
       <c r="C178" s="1">
         <v>0</v>
@@ -5366,10 +5360,10 @@
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>13</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B179" s="6">
+        <v>90</v>
       </c>
       <c r="C179" s="1">
         <v>0</v>
@@ -5392,10 +5386,10 @@
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>13</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B180" s="6">
+        <v>90</v>
       </c>
       <c r="C180" s="1">
         <v>0</v>
@@ -5418,10 +5412,10 @@
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>13</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B181" s="6">
+        <v>90</v>
       </c>
       <c r="C181" s="1">
         <v>0</v>
@@ -5444,10 +5438,10 @@
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>13</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B182" s="6">
+        <v>90</v>
       </c>
       <c r="C182" s="1">
         <v>0</v>
@@ -5470,10 +5464,10 @@
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>13</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B183" s="6">
+        <v>90</v>
       </c>
       <c r="C183" s="1">
         <v>0</v>
@@ -5496,10 +5490,10 @@
     </row>
     <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>13</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B184" s="6">
+        <v>90</v>
       </c>
       <c r="C184" s="1">
         <v>0</v>
@@ -5522,10 +5516,10 @@
     </row>
     <row r="185" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>13</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B185" s="6">
+        <v>90</v>
       </c>
       <c r="C185" s="1">
         <v>0</v>
@@ -5548,10 +5542,10 @@
     </row>
     <row r="186" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>13</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B186" s="6">
+        <v>90</v>
       </c>
       <c r="C186" s="1">
         <v>0</v>
@@ -5574,10 +5568,10 @@
     </row>
     <row r="187" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>13</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B187" s="6">
+        <v>90</v>
       </c>
       <c r="C187" s="1">
         <v>0</v>
@@ -5600,10 +5594,10 @@
     </row>
     <row r="188" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>13</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B188" s="6">
+        <v>90</v>
       </c>
       <c r="C188" s="1">
         <v>0</v>
@@ -5626,10 +5620,10 @@
     </row>
     <row r="189" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>13</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B189" s="6">
+        <v>90</v>
       </c>
       <c r="C189" s="1">
         <v>0</v>
@@ -5652,10 +5646,10 @@
     </row>
     <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>13</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B190" s="6">
+        <v>90</v>
       </c>
       <c r="C190" s="1">
         <v>0</v>
@@ -5678,10 +5672,10 @@
     </row>
     <row r="191" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>13</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B191" s="6">
+        <v>90</v>
       </c>
       <c r="C191" s="1">
         <v>0</v>
@@ -5704,10 +5698,10 @@
     </row>
     <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>13</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B192" s="6">
+        <v>90</v>
       </c>
       <c r="C192" s="1">
         <v>0</v>
@@ -5730,10 +5724,10 @@
     </row>
     <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>13</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B193" s="6">
+        <v>90</v>
       </c>
       <c r="C193" s="1">
         <v>0</v>
@@ -5756,10 +5750,10 @@
     </row>
     <row r="194" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>13</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B194" s="6">
+        <v>90</v>
       </c>
       <c r="C194" s="1">
         <v>0</v>
@@ -5782,10 +5776,10 @@
     </row>
     <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>13</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B195" s="6">
+        <v>90</v>
       </c>
       <c r="C195" s="1">
         <v>0</v>
@@ -5808,10 +5802,10 @@
     </row>
     <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>13</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B196" s="6">
+        <v>90</v>
       </c>
       <c r="C196" s="1">
         <v>0</v>
@@ -5834,10 +5828,10 @@
     </row>
     <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>13</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B197" s="6">
+        <v>90</v>
       </c>
       <c r="C197" s="1">
         <v>0</v>
@@ -5860,10 +5854,10 @@
     </row>
     <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>13</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B198" s="6">
+        <v>90</v>
       </c>
       <c r="C198" s="1">
         <v>0</v>
@@ -5886,10 +5880,10 @@
     </row>
     <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>13</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B199" s="6">
+        <v>90</v>
       </c>
       <c r="C199" s="1">
         <v>0</v>
@@ -5912,10 +5906,10 @@
     </row>
     <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>13</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B200" s="6">
+        <v>90</v>
       </c>
       <c r="C200" s="1">
         <v>0</v>
@@ -5938,10 +5932,10 @@
     </row>
     <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>13</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B201" s="6">
+        <v>90</v>
       </c>
       <c r="C201" s="1">
         <v>0</v>
@@ -5964,10 +5958,10 @@
     </row>
     <row r="202" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>13</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B202" s="6">
+        <v>90</v>
       </c>
       <c r="C202" s="1">
         <v>0</v>
@@ -5990,10 +5984,10 @@
     </row>
     <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>13</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B203" s="6">
+        <v>90</v>
       </c>
       <c r="C203" s="1">
         <v>0</v>
@@ -6016,10 +6010,10 @@
     </row>
     <row r="204" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>13</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B204" s="6">
+        <v>90</v>
       </c>
       <c r="C204" s="1">
         <v>0</v>
@@ -6042,10 +6036,10 @@
     </row>
     <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>13</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B205" s="6">
+        <v>90</v>
       </c>
       <c r="C205" s="1">
         <v>0</v>
@@ -6068,10 +6062,10 @@
     </row>
     <row r="206" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>13</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B206" s="6">
+        <v>90</v>
       </c>
       <c r="C206" s="1">
         <v>0</v>
@@ -6094,10 +6088,10 @@
     </row>
     <row r="207" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>13</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B207" s="6">
+        <v>90</v>
       </c>
       <c r="C207" s="1">
         <v>0</v>
@@ -6120,10 +6114,10 @@
     </row>
     <row r="208" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>13</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B208" s="6">
+        <v>90</v>
       </c>
       <c r="C208" s="1">
         <v>0</v>
@@ -6146,10 +6140,10 @@
     </row>
     <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>13</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B209" s="6">
+        <v>90</v>
       </c>
       <c r="C209" s="1">
         <v>0</v>
@@ -6172,10 +6166,10 @@
     </row>
     <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>13</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B210" s="6">
+        <v>90</v>
       </c>
       <c r="C210" s="1">
         <v>0</v>
@@ -6198,10 +6192,10 @@
     </row>
     <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>13</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B211" s="6">
+        <v>90</v>
       </c>
       <c r="C211" s="1">
         <v>0</v>
@@ -6224,10 +6218,10 @@
     </row>
     <row r="212" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>13</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B212" s="6">
+        <v>90</v>
       </c>
       <c r="C212" s="1">
         <v>0</v>
@@ -6250,10 +6244,10 @@
     </row>
     <row r="213" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>13</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B213" s="6">
+        <v>90</v>
       </c>
       <c r="C213" s="1">
         <v>0</v>
@@ -6276,10 +6270,10 @@
     </row>
     <row r="214" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>13</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B214" s="6">
+        <v>90</v>
       </c>
       <c r="C214" s="1">
         <v>0</v>
@@ -6302,10 +6296,10 @@
     </row>
     <row r="215" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>13</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B215" s="6">
+        <v>90</v>
       </c>
       <c r="C215" s="1">
         <v>0</v>
@@ -6328,10 +6322,10 @@
     </row>
     <row r="216" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>13</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B216" s="6">
+        <v>90</v>
       </c>
       <c r="C216" s="1">
         <v>0</v>
@@ -6354,10 +6348,10 @@
     </row>
     <row r="217" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>13</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B217" s="6">
+        <v>90</v>
       </c>
       <c r="C217" s="1">
         <v>0</v>
@@ -6380,10 +6374,10 @@
     </row>
     <row r="218" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>13</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B218" s="6">
+        <v>90</v>
       </c>
       <c r="C218" s="1">
         <v>0</v>
@@ -6406,10 +6400,10 @@
     </row>
     <row r="219" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>13</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B219" s="6">
+        <v>90</v>
       </c>
       <c r="C219" s="1">
         <v>0</v>
@@ -6432,10 +6426,10 @@
     </row>
     <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>13</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B220" s="6">
+        <v>90</v>
       </c>
       <c r="C220" s="1">
         <v>0</v>
@@ -6458,10 +6452,10 @@
     </row>
     <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>13</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B221" s="6">
+        <v>90</v>
       </c>
       <c r="C221" s="1">
         <v>0</v>
@@ -6484,10 +6478,10 @@
     </row>
     <row r="222" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>13</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B222" s="6">
+        <v>90</v>
       </c>
       <c r="C222" s="1">
         <v>0</v>
@@ -6510,10 +6504,10 @@
     </row>
     <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>13</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B223" s="6">
+        <v>90</v>
       </c>
       <c r="C223" s="1">
         <v>0</v>
@@ -6536,10 +6530,10 @@
     </row>
     <row r="224" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>13</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B224" s="6">
+        <v>90</v>
       </c>
       <c r="C224" s="1">
         <v>0</v>
@@ -6562,10 +6556,10 @@
     </row>
     <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>13</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B225" s="6">
+        <v>90</v>
       </c>
       <c r="C225" s="1">
         <v>0</v>
@@ -6588,10 +6582,10 @@
     </row>
     <row r="226" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>13</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B226" s="6">
+        <v>90</v>
       </c>
       <c r="C226" s="1">
         <v>0</v>
@@ -6614,10 +6608,10 @@
     </row>
     <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>13</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B227" s="6">
+        <v>90</v>
       </c>
       <c r="C227" s="1">
         <v>0</v>
@@ -6640,10 +6634,10 @@
     </row>
     <row r="228" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>13</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B228" s="6">
+        <v>90</v>
       </c>
       <c r="C228" s="1">
         <v>0</v>
@@ -6666,10 +6660,10 @@
     </row>
     <row r="229" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>13</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B229" s="6">
+        <v>90</v>
       </c>
       <c r="C229" s="1">
         <v>0</v>
@@ -6692,10 +6686,10 @@
     </row>
     <row r="230" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>13</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B230" s="6">
+        <v>90</v>
       </c>
       <c r="C230" s="1">
         <v>0</v>
@@ -6718,10 +6712,10 @@
     </row>
     <row r="231" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>13</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B231" s="6">
+        <v>90</v>
       </c>
       <c r="C231" s="1">
         <v>0</v>
@@ -6744,10 +6738,10 @@
     </row>
     <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>13</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B232" s="6">
+        <v>90</v>
       </c>
       <c r="C232" s="1">
         <v>0</v>
@@ -6770,10 +6764,10 @@
     </row>
     <row r="233" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>13</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B233" s="6">
+        <v>90</v>
       </c>
       <c r="C233" s="1">
         <v>0</v>
@@ -6796,10 +6790,10 @@
     </row>
     <row r="234" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>13</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B234" s="6">
+        <v>90</v>
       </c>
       <c r="C234" s="1">
         <v>0</v>
@@ -6822,10 +6816,10 @@
     </row>
     <row r="235" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>13</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B235" s="6">
+        <v>90</v>
       </c>
       <c r="C235" s="1">
         <v>0</v>
@@ -6848,10 +6842,10 @@
     </row>
     <row r="236" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>13</v>
-      </c>
-      <c r="B236" s="13" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B236" s="6">
+        <v>90</v>
       </c>
       <c r="C236" s="1">
         <v>180</v>
@@ -6874,10 +6868,10 @@
     </row>
     <row r="237" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>13</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B237" s="6">
+        <v>90</v>
       </c>
       <c r="C237" s="1">
         <v>180</v>
@@ -6900,10 +6894,10 @@
     </row>
     <row r="238" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>13</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B238" s="6">
+        <v>90</v>
       </c>
       <c r="C238" s="1">
         <v>180</v>
@@ -6926,10 +6920,10 @@
     </row>
     <row r="239" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>13</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B239" s="6">
+        <v>90</v>
       </c>
       <c r="C239" s="1">
         <v>180</v>
@@ -6952,10 +6946,10 @@
     </row>
     <row r="240" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>13</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B240" s="6">
+        <v>90</v>
       </c>
       <c r="C240" s="1">
         <v>180</v>
@@ -6978,10 +6972,10 @@
     </row>
     <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>13</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B241" s="6">
+        <v>90</v>
       </c>
       <c r="C241" s="1">
         <v>180</v>
@@ -7004,10 +6998,10 @@
     </row>
     <row r="242" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>13</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B242" s="6">
+        <v>90</v>
       </c>
       <c r="C242" s="1">
         <v>180</v>
@@ -7030,10 +7024,10 @@
     </row>
     <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>13</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B243" s="6">
+        <v>90</v>
       </c>
       <c r="C243" s="1">
         <v>180</v>
@@ -7056,10 +7050,10 @@
     </row>
     <row r="244" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>13</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B244" s="6">
+        <v>90</v>
       </c>
       <c r="C244" s="1">
         <v>180</v>
@@ -7082,10 +7076,10 @@
     </row>
     <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>13</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B245" s="6">
+        <v>90</v>
       </c>
       <c r="C245" s="1">
         <v>180</v>
@@ -7108,10 +7102,10 @@
     </row>
     <row r="246" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>13</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B246" s="6">
+        <v>90</v>
       </c>
       <c r="C246" s="1">
         <v>180</v>
@@ -7134,10 +7128,10 @@
     </row>
     <row r="247" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>13</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B247" s="6">
+        <v>90</v>
       </c>
       <c r="C247" s="1">
         <v>180</v>
@@ -7160,10 +7154,10 @@
     </row>
     <row r="248" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>13</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B248" s="6">
+        <v>90</v>
       </c>
       <c r="C248" s="1">
         <v>180</v>
@@ -7186,10 +7180,10 @@
     </row>
     <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>13</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B249" s="6">
+        <v>90</v>
       </c>
       <c r="C249" s="1">
         <v>180</v>
@@ -7212,10 +7206,10 @@
     </row>
     <row r="250" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>13</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B250" s="6">
+        <v>90</v>
       </c>
       <c r="C250" s="1">
         <v>180</v>
@@ -7238,10 +7232,10 @@
     </row>
     <row r="251" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>13</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B251" s="6">
+        <v>90</v>
       </c>
       <c r="C251" s="1">
         <v>180</v>
@@ -7264,10 +7258,10 @@
     </row>
     <row r="252" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>13</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B252" s="6">
+        <v>90</v>
       </c>
       <c r="C252" s="1">
         <v>180</v>
@@ -7290,10 +7284,10 @@
     </row>
     <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>13</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B253" s="6">
+        <v>90</v>
       </c>
       <c r="C253" s="1">
         <v>180</v>
@@ -7316,10 +7310,10 @@
     </row>
     <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>13</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B254" s="6">
+        <v>90</v>
       </c>
       <c r="C254" s="1">
         <v>180</v>
@@ -7342,10 +7336,10 @@
     </row>
     <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>13</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B255" s="6">
+        <v>90</v>
       </c>
       <c r="C255" s="1">
         <v>180</v>
@@ -7368,10 +7362,10 @@
     </row>
     <row r="256" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>13</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B256" s="6">
+        <v>90</v>
       </c>
       <c r="C256" s="1">
         <v>180</v>
@@ -7394,10 +7388,10 @@
     </row>
     <row r="257" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>13</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B257" s="6">
+        <v>90</v>
       </c>
       <c r="C257" s="1">
         <v>180</v>
@@ -7420,10 +7414,10 @@
     </row>
     <row r="258" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>13</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B258" s="6">
+        <v>90</v>
       </c>
       <c r="C258" s="1">
         <v>180</v>
@@ -7446,10 +7440,10 @@
     </row>
     <row r="259" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>13</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B259" s="6">
+        <v>90</v>
       </c>
       <c r="C259" s="1">
         <v>180</v>
@@ -7472,10 +7466,10 @@
     </row>
     <row r="260" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>13</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B260" s="6">
+        <v>90</v>
       </c>
       <c r="C260" s="1">
         <v>180</v>
@@ -7498,10 +7492,10 @@
     </row>
     <row r="261" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>13</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B261" s="6">
+        <v>90</v>
       </c>
       <c r="C261" s="1">
         <v>180</v>
@@ -7524,10 +7518,10 @@
     </row>
     <row r="262" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>13</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B262" s="6">
+        <v>90</v>
       </c>
       <c r="C262" s="1">
         <v>180</v>
@@ -7550,10 +7544,10 @@
     </row>
     <row r="263" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>13</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B263" s="6">
+        <v>90</v>
       </c>
       <c r="C263" s="1">
         <v>180</v>
@@ -7576,10 +7570,10 @@
     </row>
     <row r="264" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>13</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B264" s="6">
+        <v>90</v>
       </c>
       <c r="C264" s="1">
         <v>180</v>
@@ -7602,10 +7596,10 @@
     </row>
     <row r="265" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>13</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B265" s="6">
+        <v>90</v>
       </c>
       <c r="C265" s="1">
         <v>180</v>
@@ -7628,10 +7622,10 @@
     </row>
     <row r="266" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>13</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B266" s="6">
+        <v>90</v>
       </c>
       <c r="C266" s="1">
         <v>180</v>
@@ -7654,10 +7648,10 @@
     </row>
     <row r="267" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>13</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B267" s="6">
+        <v>90</v>
       </c>
       <c r="C267" s="1">
         <v>180</v>
@@ -7680,10 +7674,10 @@
     </row>
     <row r="268" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>13</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B268" s="6">
+        <v>90</v>
       </c>
       <c r="C268" s="1">
         <v>180</v>
@@ -7706,10 +7700,10 @@
     </row>
     <row r="269" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>13</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B269" s="6">
+        <v>90</v>
       </c>
       <c r="C269" s="1">
         <v>180</v>
@@ -7732,10 +7726,10 @@
     </row>
     <row r="270" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>13</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B270" s="6">
+        <v>90</v>
       </c>
       <c r="C270" s="1">
         <v>180</v>
@@ -7758,10 +7752,10 @@
     </row>
     <row r="271" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>13</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B271" s="6">
+        <v>90</v>
       </c>
       <c r="C271" s="1">
         <v>180</v>
@@ -7784,10 +7778,10 @@
     </row>
     <row r="272" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>13</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B272" s="6">
+        <v>90</v>
       </c>
       <c r="C272" s="1">
         <v>180</v>
@@ -7810,10 +7804,10 @@
     </row>
     <row r="273" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>13</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B273" s="6">
+        <v>90</v>
       </c>
       <c r="C273" s="1">
         <v>180</v>
@@ -7836,10 +7830,10 @@
     </row>
     <row r="274" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>13</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B274" s="6">
+        <v>90</v>
       </c>
       <c r="C274" s="1">
         <v>180</v>
@@ -7862,10 +7856,10 @@
     </row>
     <row r="275" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>13</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B275" s="6">
+        <v>90</v>
       </c>
       <c r="C275" s="1">
         <v>180</v>
@@ -7888,10 +7882,10 @@
     </row>
     <row r="276" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>13</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B276" s="6">
+        <v>90</v>
       </c>
       <c r="C276" s="1">
         <v>180</v>
@@ -7914,10 +7908,10 @@
     </row>
     <row r="277" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>13</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B277" s="6">
+        <v>90</v>
       </c>
       <c r="C277" s="1">
         <v>180</v>
@@ -7940,10 +7934,10 @@
     </row>
     <row r="278" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>13</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B278" s="6">
+        <v>90</v>
       </c>
       <c r="C278" s="1">
         <v>180</v>
@@ -7966,10 +7960,10 @@
     </row>
     <row r="279" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>13</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B279" s="6">
+        <v>90</v>
       </c>
       <c r="C279" s="1">
         <v>180</v>
@@ -7992,10 +7986,10 @@
     </row>
     <row r="280" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>13</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B280" s="6">
+        <v>90</v>
       </c>
       <c r="C280" s="1">
         <v>180</v>
@@ -8018,10 +8012,10 @@
     </row>
     <row r="281" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>13</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B281" s="6">
+        <v>90</v>
       </c>
       <c r="C281" s="1">
         <v>180</v>
@@ -8044,10 +8038,10 @@
     </row>
     <row r="282" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>13</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B282" s="6">
+        <v>90</v>
       </c>
       <c r="C282" s="1">
         <v>180</v>
@@ -8070,10 +8064,10 @@
     </row>
     <row r="283" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>13</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B283" s="6">
+        <v>90</v>
       </c>
       <c r="C283" s="1">
         <v>180</v>
@@ -8096,10 +8090,10 @@
     </row>
     <row r="284" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>13</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B284" s="6">
+        <v>90</v>
       </c>
       <c r="C284" s="1">
         <v>180</v>
@@ -8122,10 +8116,10 @@
     </row>
     <row r="285" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>13</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B285" s="6">
+        <v>90</v>
       </c>
       <c r="C285" s="1">
         <v>180</v>
@@ -8148,10 +8142,10 @@
     </row>
     <row r="286" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>13</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B286" s="6">
+        <v>90</v>
       </c>
       <c r="C286" s="1">
         <v>180</v>
@@ -8174,10 +8168,10 @@
     </row>
     <row r="287" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>13</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B287" s="6">
+        <v>90</v>
       </c>
       <c r="C287" s="1">
         <v>180</v>
@@ -8200,10 +8194,10 @@
     </row>
     <row r="288" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>13</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B288" s="6">
+        <v>90</v>
       </c>
       <c r="C288" s="1">
         <v>180</v>
@@ -8226,10 +8220,10 @@
     </row>
     <row r="289" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>13</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B289" s="6">
+        <v>90</v>
       </c>
       <c r="C289" s="1">
         <v>180</v>
@@ -8252,10 +8246,10 @@
     </row>
     <row r="290" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>13</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B290" s="6">
+        <v>90</v>
       </c>
       <c r="C290" s="1">
         <v>180</v>
@@ -8278,10 +8272,10 @@
     </row>
     <row r="291" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>13</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B291" s="6">
+        <v>90</v>
       </c>
       <c r="C291" s="1">
         <v>180</v>
@@ -8304,10 +8298,10 @@
     </row>
     <row r="292" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>13</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B292" s="6">
+        <v>90</v>
       </c>
       <c r="C292" s="1">
         <v>180</v>
@@ -8330,10 +8324,10 @@
     </row>
     <row r="293" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>13</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B293" s="6">
+        <v>90</v>
       </c>
       <c r="C293" s="1">
         <v>180</v>
@@ -8356,10 +8350,10 @@
     </row>
     <row r="294" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>13</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B294" s="6">
+        <v>90</v>
       </c>
       <c r="C294" s="1">
         <v>180</v>
@@ -8382,10 +8376,10 @@
     </row>
     <row r="295" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>13</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B295" s="6">
+        <v>90</v>
       </c>
       <c r="C295" s="1">
         <v>180</v>
@@ -8408,10 +8402,10 @@
     </row>
     <row r="296" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>13</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B296" s="6">
+        <v>90</v>
       </c>
       <c r="C296" s="1">
         <v>180</v>
@@ -8434,10 +8428,10 @@
     </row>
     <row r="297" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>13</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B297" s="6">
+        <v>90</v>
       </c>
       <c r="C297" s="1">
         <v>180</v>
@@ -8460,10 +8454,10 @@
     </row>
     <row r="298" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>13</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B298" s="6">
+        <v>90</v>
       </c>
       <c r="C298" s="1">
         <v>180</v>
@@ -8486,10 +8480,10 @@
     </row>
     <row r="299" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>13</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B299" s="6">
+        <v>90</v>
       </c>
       <c r="C299" s="1">
         <v>180</v>
@@ -8512,10 +8506,10 @@
     </row>
     <row r="300" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>13</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B300" s="6">
+        <v>90</v>
       </c>
       <c r="C300" s="1">
         <v>180</v>
@@ -8538,10 +8532,10 @@
     </row>
     <row r="301" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>13</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B301" s="6">
+        <v>90</v>
       </c>
       <c r="C301" s="1">
         <v>180</v>
@@ -8564,10 +8558,10 @@
     </row>
     <row r="302" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>13</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B302" s="6">
+        <v>90</v>
       </c>
       <c r="C302" s="1">
         <v>180</v>
@@ -8590,10 +8584,10 @@
     </row>
     <row r="303" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>13</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B303" s="6">
+        <v>90</v>
       </c>
       <c r="C303" s="1">
         <v>180</v>
@@ -8616,10 +8610,10 @@
     </row>
     <row r="304" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>13</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B304" s="6">
+        <v>90</v>
       </c>
       <c r="C304" s="1">
         <v>180</v>
@@ -8642,10 +8636,10 @@
     </row>
     <row r="305" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>13</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B305" s="6">
+        <v>90</v>
       </c>
       <c r="C305" s="1">
         <v>180</v>
@@ -8668,10 +8662,10 @@
     </row>
     <row r="306" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>13</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B306" s="6">
+        <v>90</v>
       </c>
       <c r="C306" s="1">
         <v>180</v>
@@ -8694,10 +8688,10 @@
     </row>
     <row r="307" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>13</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B307" s="6">
+        <v>90</v>
       </c>
       <c r="C307" s="1">
         <v>180</v>
@@ -8720,10 +8714,10 @@
     </row>
     <row r="308" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>13</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B308" s="6">
+        <v>90</v>
       </c>
       <c r="C308" s="1">
         <v>180</v>
@@ -8746,10 +8740,10 @@
     </row>
     <row r="309" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>13</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B309" s="6">
+        <v>90</v>
       </c>
       <c r="C309" s="1">
         <v>180</v>
@@ -8772,10 +8766,10 @@
     </row>
     <row r="310" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>13</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B310" s="6">
+        <v>90</v>
       </c>
       <c r="C310" s="1">
         <v>180</v>
@@ -8798,10 +8792,10 @@
     </row>
     <row r="311" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>13</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B311" s="6">
+        <v>90</v>
       </c>
       <c r="C311" s="1">
         <v>180</v>
@@ -8824,10 +8818,10 @@
     </row>
     <row r="312" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>13</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B312" s="6">
+        <v>90</v>
       </c>
       <c r="C312" s="1">
         <v>180</v>
@@ -8850,10 +8844,10 @@
     </row>
     <row r="313" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>13</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B313" s="6">
+        <v>90</v>
       </c>
       <c r="C313" s="1">
         <v>180</v>
@@ -8876,10 +8870,10 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>13</v>
-      </c>
-      <c r="B314" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B314" s="13">
+        <v>45</v>
       </c>
       <c r="C314" s="14">
         <v>180</v>
@@ -8902,10 +8896,10 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>13</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B315" s="6">
+        <v>45</v>
       </c>
       <c r="C315" s="1">
         <v>180</v>
@@ -8928,10 +8922,10 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>13</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B316" s="6">
+        <v>45</v>
       </c>
       <c r="C316" s="1">
         <v>180</v>
@@ -8954,10 +8948,10 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>13</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B317" s="6">
+        <v>45</v>
       </c>
       <c r="C317" s="1">
         <v>180</v>
@@ -8980,10 +8974,10 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>13</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B318" s="6">
+        <v>45</v>
       </c>
       <c r="C318" s="1">
         <v>180</v>
@@ -9006,10 +9000,10 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>13</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B319" s="6">
+        <v>45</v>
       </c>
       <c r="C319" s="1">
         <v>180</v>
@@ -9032,10 +9026,10 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>13</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B320" s="6">
+        <v>45</v>
       </c>
       <c r="C320" s="1">
         <v>180</v>
@@ -9058,10 +9052,10 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>13</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B321" s="6">
+        <v>45</v>
       </c>
       <c r="C321" s="1">
         <v>180</v>
@@ -9084,10 +9078,10 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>13</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B322" s="6">
+        <v>45</v>
       </c>
       <c r="C322" s="1">
         <v>180</v>
@@ -9110,10 +9104,10 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>13</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B323" s="6">
+        <v>45</v>
       </c>
       <c r="C323" s="1">
         <v>180</v>
@@ -9136,10 +9130,10 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>13</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B324" s="6">
+        <v>45</v>
       </c>
       <c r="C324" s="1">
         <v>180</v>
@@ -9162,10 +9156,10 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>13</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B325" s="6">
+        <v>45</v>
       </c>
       <c r="C325" s="1">
         <v>180</v>
@@ -9188,10 +9182,10 @@
     </row>
     <row r="326" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>13</v>
-      </c>
-      <c r="B326" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B326" s="6">
+        <v>45</v>
       </c>
       <c r="C326" s="1">
         <v>180</v>
@@ -9214,10 +9208,10 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>13</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B327" s="6">
+        <v>45</v>
       </c>
       <c r="C327" s="1">
         <v>180</v>
@@ -9240,10 +9234,10 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>13</v>
-      </c>
-      <c r="B328" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B328" s="6">
+        <v>45</v>
       </c>
       <c r="C328" s="1">
         <v>180</v>
@@ -9266,10 +9260,10 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>13</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B329" s="6">
+        <v>45</v>
       </c>
       <c r="C329" s="1">
         <v>180</v>
@@ -9292,10 +9286,10 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>13</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B330" s="6">
+        <v>45</v>
       </c>
       <c r="C330" s="1">
         <v>180</v>
@@ -9318,10 +9312,10 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>13</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B331" s="6">
+        <v>45</v>
       </c>
       <c r="C331" s="1">
         <v>180</v>
@@ -9344,10 +9338,10 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>13</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B332" s="6">
+        <v>45</v>
       </c>
       <c r="C332" s="1">
         <v>180</v>
@@ -9370,10 +9364,10 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>13</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B333" s="6">
+        <v>45</v>
       </c>
       <c r="C333" s="1">
         <v>180</v>
@@ -9396,10 +9390,10 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>13</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B334" s="6">
+        <v>45</v>
       </c>
       <c r="C334" s="1">
         <v>180</v>
@@ -9422,10 +9416,10 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>13</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B335" s="6">
+        <v>45</v>
       </c>
       <c r="C335" s="1">
         <v>180</v>
@@ -9448,10 +9442,10 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>13</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B336" s="6">
+        <v>45</v>
       </c>
       <c r="C336" s="1">
         <v>180</v>
@@ -9474,10 +9468,10 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>13</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B337" s="6">
+        <v>45</v>
       </c>
       <c r="C337" s="1">
         <v>180</v>
@@ -9500,10 +9494,10 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>13</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B338" s="6">
+        <v>45</v>
       </c>
       <c r="C338" s="1">
         <v>180</v>
@@ -9526,10 +9520,10 @@
     </row>
     <row r="339" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>13</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B339" s="6">
+        <v>45</v>
       </c>
       <c r="C339" s="1">
         <v>180</v>
@@ -9552,10 +9546,10 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>13</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B340" s="6">
+        <v>45</v>
       </c>
       <c r="C340" s="1">
         <v>180</v>
@@ -9578,10 +9572,10 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>13</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B341" s="6">
+        <v>45</v>
       </c>
       <c r="C341" s="1">
         <v>180</v>
@@ -9604,10 +9598,10 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>13</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B342" s="6">
+        <v>45</v>
       </c>
       <c r="C342" s="1">
         <v>180</v>
@@ -9630,10 +9624,10 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>13</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B343" s="6">
+        <v>45</v>
       </c>
       <c r="C343" s="1">
         <v>180</v>
@@ -9656,10 +9650,10 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>13</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B344" s="6">
+        <v>45</v>
       </c>
       <c r="C344" s="1">
         <v>180</v>
@@ -9682,10 +9676,10 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>13</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B345" s="6">
+        <v>45</v>
       </c>
       <c r="C345" s="1">
         <v>180</v>
@@ -9708,10 +9702,10 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>13</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B346" s="6">
+        <v>45</v>
       </c>
       <c r="C346" s="1">
         <v>180</v>
@@ -9734,10 +9728,10 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>13</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B347" s="6">
+        <v>45</v>
       </c>
       <c r="C347" s="1">
         <v>180</v>
@@ -9760,10 +9754,10 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>13</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B348" s="6">
+        <v>45</v>
       </c>
       <c r="C348" s="1">
         <v>180</v>
@@ -9786,10 +9780,10 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>13</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B349" s="6">
+        <v>45</v>
       </c>
       <c r="C349" s="1">
         <v>180</v>
@@ -9812,10 +9806,10 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>13</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B350" s="6">
+        <v>45</v>
       </c>
       <c r="C350" s="1">
         <v>180</v>
@@ -9838,10 +9832,10 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>13</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B351" s="6">
+        <v>45</v>
       </c>
       <c r="C351" s="1">
         <v>180</v>
@@ -9864,10 +9858,10 @@
     </row>
     <row r="352" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>13</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B352" s="6">
+        <v>45</v>
       </c>
       <c r="C352" s="1">
         <v>180</v>
@@ -9890,10 +9884,10 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>13</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B353" s="6">
+        <v>45</v>
       </c>
       <c r="C353" s="1">
         <v>180</v>
@@ -9916,10 +9910,10 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>13</v>
-      </c>
-      <c r="B354" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B354" s="6">
+        <v>45</v>
       </c>
       <c r="C354" s="1">
         <v>180</v>
@@ -9942,10 +9936,10 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>13</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B355" s="6">
+        <v>45</v>
       </c>
       <c r="C355" s="1">
         <v>180</v>
@@ -9968,10 +9962,10 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>13</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B356" s="6">
+        <v>45</v>
       </c>
       <c r="C356" s="1">
         <v>180</v>
@@ -9994,10 +9988,10 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>13</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B357" s="6">
+        <v>45</v>
       </c>
       <c r="C357" s="1">
         <v>180</v>
@@ -10020,10 +10014,10 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>13</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B358" s="6">
+        <v>45</v>
       </c>
       <c r="C358" s="1">
         <v>180</v>
@@ -10046,10 +10040,10 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>13</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B359" s="6">
+        <v>45</v>
       </c>
       <c r="C359" s="1">
         <v>180</v>
@@ -10072,10 +10066,10 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>13</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B360" s="6">
+        <v>45</v>
       </c>
       <c r="C360" s="1">
         <v>180</v>
@@ -10098,10 +10092,10 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>13</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B361" s="6">
+        <v>45</v>
       </c>
       <c r="C361" s="1">
         <v>180</v>
@@ -10124,10 +10118,10 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>13</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B362" s="6">
+        <v>45</v>
       </c>
       <c r="C362" s="1">
         <v>180</v>
@@ -10150,10 +10144,10 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>13</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B363" s="6">
+        <v>45</v>
       </c>
       <c r="C363" s="1">
         <v>180</v>
@@ -10176,10 +10170,10 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>13</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B364" s="6">
+        <v>45</v>
       </c>
       <c r="C364" s="1">
         <v>180</v>
@@ -10202,10 +10196,10 @@
     </row>
     <row r="365" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>13</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B365" s="6">
+        <v>45</v>
       </c>
       <c r="C365" s="1">
         <v>180</v>
@@ -10228,10 +10222,10 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>13</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B366" s="6">
+        <v>45</v>
       </c>
       <c r="C366" s="1">
         <v>180</v>
@@ -10254,10 +10248,10 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>13</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B367" s="6">
+        <v>45</v>
       </c>
       <c r="C367" s="1">
         <v>180</v>
@@ -10280,10 +10274,10 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>13</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B368" s="6">
+        <v>45</v>
       </c>
       <c r="C368" s="1">
         <v>180</v>
@@ -10306,10 +10300,10 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>13</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B369" s="6">
+        <v>45</v>
       </c>
       <c r="C369" s="1">
         <v>180</v>
@@ -10332,10 +10326,10 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>13</v>
-      </c>
-      <c r="B370" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B370" s="6">
+        <v>45</v>
       </c>
       <c r="C370" s="1">
         <v>180</v>
@@ -10358,10 +10352,10 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>13</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B371" s="6">
+        <v>45</v>
       </c>
       <c r="C371" s="1">
         <v>180</v>
@@ -10384,10 +10378,10 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>13</v>
-      </c>
-      <c r="B372" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B372" s="6">
+        <v>45</v>
       </c>
       <c r="C372" s="1">
         <v>180</v>
@@ -10410,10 +10404,10 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>13</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B373" s="6">
+        <v>45</v>
       </c>
       <c r="C373" s="1">
         <v>180</v>
@@ -10436,10 +10430,10 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>13</v>
-      </c>
-      <c r="B374" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B374" s="6">
+        <v>45</v>
       </c>
       <c r="C374" s="1">
         <v>180</v>
@@ -10462,10 +10456,10 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>13</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B375" s="6">
+        <v>45</v>
       </c>
       <c r="C375" s="1">
         <v>180</v>
@@ -10488,10 +10482,10 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>13</v>
-      </c>
-      <c r="B376" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B376" s="6">
+        <v>45</v>
       </c>
       <c r="C376" s="1">
         <v>180</v>
@@ -10514,10 +10508,10 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>13</v>
-      </c>
-      <c r="B377" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B377" s="6">
+        <v>45</v>
       </c>
       <c r="C377" s="1">
         <v>180</v>
@@ -10540,10 +10534,10 @@
     </row>
     <row r="378" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>13</v>
-      </c>
-      <c r="B378" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B378" s="6">
+        <v>45</v>
       </c>
       <c r="C378" s="1">
         <v>180</v>
@@ -10566,10 +10560,10 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>13</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B379" s="6">
+        <v>45</v>
       </c>
       <c r="C379" s="1">
         <v>180</v>
@@ -10592,10 +10586,10 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>13</v>
-      </c>
-      <c r="B380" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B380" s="6">
+        <v>45</v>
       </c>
       <c r="C380" s="1">
         <v>180</v>
@@ -10618,10 +10612,10 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>13</v>
-      </c>
-      <c r="B381" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B381" s="6">
+        <v>45</v>
       </c>
       <c r="C381" s="1">
         <v>180</v>
@@ -10644,10 +10638,10 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>13</v>
-      </c>
-      <c r="B382" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B382" s="6">
+        <v>45</v>
       </c>
       <c r="C382" s="1">
         <v>180</v>
@@ -10670,10 +10664,10 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>13</v>
-      </c>
-      <c r="B383" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B383" s="6">
+        <v>45</v>
       </c>
       <c r="C383" s="1">
         <v>180</v>
@@ -10696,10 +10690,10 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>13</v>
-      </c>
-      <c r="B384" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B384" s="6">
+        <v>45</v>
       </c>
       <c r="C384" s="1">
         <v>180</v>
@@ -10722,10 +10716,10 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>13</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B385" s="6">
+        <v>45</v>
       </c>
       <c r="C385" s="1">
         <v>180</v>
@@ -10748,10 +10742,10 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>13</v>
-      </c>
-      <c r="B386" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B386" s="6">
+        <v>45</v>
       </c>
       <c r="C386" s="1">
         <v>180</v>
@@ -10774,10 +10768,10 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>13</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B387" s="6">
+        <v>45</v>
       </c>
       <c r="C387" s="1">
         <v>180</v>
@@ -10800,10 +10794,10 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>13</v>
-      </c>
-      <c r="B388" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B388" s="6">
+        <v>45</v>
       </c>
       <c r="C388" s="1">
         <v>180</v>
@@ -10826,10 +10820,10 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>13</v>
-      </c>
-      <c r="B389" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B389" s="6">
+        <v>45</v>
       </c>
       <c r="C389" s="1">
         <v>180</v>
@@ -10852,10 +10846,10 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>13</v>
-      </c>
-      <c r="B390" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B390" s="6">
+        <v>45</v>
       </c>
       <c r="C390" s="1">
         <v>180</v>
@@ -10878,10 +10872,10 @@
     </row>
     <row r="391" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>13</v>
-      </c>
-      <c r="B391" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B391" s="6">
+        <v>45</v>
       </c>
       <c r="C391" s="1">
         <v>180</v>
@@ -10904,10 +10898,10 @@
     </row>
     <row r="392" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>13</v>
-      </c>
-      <c r="B392" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B392" s="6">
+        <v>45</v>
       </c>
       <c r="C392" s="1">
         <v>180</v>
@@ -10930,10 +10924,10 @@
     </row>
     <row r="393" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>13</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B393" s="6">
+        <v>45</v>
       </c>
       <c r="C393" s="1">
         <v>180</v>
@@ -10956,10 +10950,10 @@
     </row>
     <row r="394" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>13</v>
-      </c>
-      <c r="B394" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B394" s="6">
+        <v>45</v>
       </c>
       <c r="C394" s="1">
         <v>180</v>
@@ -10982,10 +10976,10 @@
     </row>
     <row r="395" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>13</v>
-      </c>
-      <c r="B395" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B395" s="6">
+        <v>45</v>
       </c>
       <c r="C395" s="1">
         <v>180</v>
@@ -11008,10 +11002,10 @@
     </row>
     <row r="396" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>13</v>
-      </c>
-      <c r="B396" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B396" s="6">
+        <v>45</v>
       </c>
       <c r="C396" s="1">
         <v>180</v>
@@ -11034,10 +11028,10 @@
     </row>
     <row r="397" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>13</v>
-      </c>
-      <c r="B397" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B397" s="6">
+        <v>45</v>
       </c>
       <c r="C397" s="1">
         <v>180</v>
@@ -11060,10 +11054,10 @@
     </row>
     <row r="398" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>13</v>
-      </c>
-      <c r="B398" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B398" s="6">
+        <v>45</v>
       </c>
       <c r="C398" s="1">
         <v>180</v>
@@ -11086,10 +11080,10 @@
     </row>
     <row r="399" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>13</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B399" s="6">
+        <v>45</v>
       </c>
       <c r="C399" s="1">
         <v>180</v>
@@ -11112,10 +11106,10 @@
     </row>
     <row r="400" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>13</v>
-      </c>
-      <c r="B400" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B400" s="6">
+        <v>45</v>
       </c>
       <c r="C400" s="1">
         <v>180</v>
@@ -11138,10 +11132,10 @@
     </row>
     <row r="401" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>13</v>
-      </c>
-      <c r="B401" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B401" s="6">
+        <v>45</v>
       </c>
       <c r="C401" s="1">
         <v>180</v>
@@ -11164,10 +11158,10 @@
     </row>
     <row r="402" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>13</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B402" s="6">
+        <v>45</v>
       </c>
       <c r="C402" s="1">
         <v>180</v>
@@ -11190,10 +11184,10 @@
     </row>
     <row r="403" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>13</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B403" s="6">
+        <v>45</v>
       </c>
       <c r="C403" s="1">
         <v>180</v>
@@ -11216,10 +11210,10 @@
     </row>
     <row r="404" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>13</v>
-      </c>
-      <c r="B404" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B404" s="6">
+        <v>45</v>
       </c>
       <c r="C404" s="1">
         <v>180</v>
@@ -11242,10 +11236,10 @@
     </row>
     <row r="405" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>13</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B405" s="6">
+        <v>45</v>
       </c>
       <c r="C405" s="1">
         <v>180</v>
@@ -11268,10 +11262,10 @@
     </row>
     <row r="406" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>13</v>
-      </c>
-      <c r="B406" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B406" s="6">
+        <v>45</v>
       </c>
       <c r="C406" s="1">
         <v>180</v>
@@ -11294,10 +11288,10 @@
     </row>
     <row r="407" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>13</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B407" s="6">
+        <v>45</v>
       </c>
       <c r="C407" s="1">
         <v>180</v>
@@ -11320,10 +11314,10 @@
     </row>
     <row r="408" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>13</v>
-      </c>
-      <c r="B408" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B408" s="6">
+        <v>45</v>
       </c>
       <c r="C408" s="1">
         <v>180</v>
@@ -11346,10 +11340,10 @@
     </row>
     <row r="409" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>13</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B409" s="6">
+        <v>45</v>
       </c>
       <c r="C409" s="1">
         <v>180</v>
@@ -11372,10 +11366,10 @@
     </row>
     <row r="410" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>13</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B410" s="6">
+        <v>45</v>
       </c>
       <c r="C410" s="1">
         <v>180</v>
@@ -11398,10 +11392,10 @@
     </row>
     <row r="411" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>13</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B411" s="6">
+        <v>45</v>
       </c>
       <c r="C411" s="1">
         <v>180</v>
@@ -11424,10 +11418,10 @@
     </row>
     <row r="412" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>13</v>
-      </c>
-      <c r="B412" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B412" s="6">
+        <v>45</v>
       </c>
       <c r="C412" s="1">
         <v>180</v>
@@ -11450,10 +11444,10 @@
     </row>
     <row r="413" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>13</v>
-      </c>
-      <c r="B413" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B413" s="6">
+        <v>45</v>
       </c>
       <c r="C413" s="1">
         <v>180</v>
@@ -11476,10 +11470,10 @@
     </row>
     <row r="414" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>13</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B414" s="6">
+        <v>45</v>
       </c>
       <c r="C414" s="1">
         <v>180</v>
@@ -11502,10 +11496,10 @@
     </row>
     <row r="415" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>13</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B415" s="6">
+        <v>45</v>
       </c>
       <c r="C415" s="1">
         <v>180</v>
@@ -11528,10 +11522,10 @@
     </row>
     <row r="416" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>13</v>
-      </c>
-      <c r="B416" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B416" s="6">
+        <v>45</v>
       </c>
       <c r="C416" s="1">
         <v>180</v>
@@ -11554,10 +11548,10 @@
     </row>
     <row r="417" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>13</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B417" s="6">
+        <v>45</v>
       </c>
       <c r="C417" s="1">
         <v>180</v>
@@ -11580,10 +11574,10 @@
     </row>
     <row r="418" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>13</v>
-      </c>
-      <c r="B418" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B418" s="6">
+        <v>45</v>
       </c>
       <c r="C418" s="1">
         <v>180</v>
@@ -11606,10 +11600,10 @@
     </row>
     <row r="419" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>13</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B419" s="6">
+        <v>45</v>
       </c>
       <c r="C419" s="1">
         <v>180</v>
@@ -11632,10 +11626,10 @@
     </row>
     <row r="420" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>13</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B420" s="6">
+        <v>45</v>
       </c>
       <c r="C420" s="1">
         <v>180</v>
@@ -11658,10 +11652,10 @@
     </row>
     <row r="421" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>13</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B421" s="6">
+        <v>45</v>
       </c>
       <c r="C421" s="1">
         <v>180</v>
@@ -11684,10 +11678,10 @@
     </row>
     <row r="422" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>13</v>
-      </c>
-      <c r="B422" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B422" s="6">
+        <v>45</v>
       </c>
       <c r="C422" s="1">
         <v>180</v>
@@ -11710,10 +11704,10 @@
     </row>
     <row r="423" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>13</v>
-      </c>
-      <c r="B423" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B423" s="6">
+        <v>45</v>
       </c>
       <c r="C423" s="1">
         <v>180</v>
@@ -11736,10 +11730,10 @@
     </row>
     <row r="424" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>13</v>
-      </c>
-      <c r="B424" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B424" s="6">
+        <v>45</v>
       </c>
       <c r="C424" s="1">
         <v>180</v>
@@ -11762,10 +11756,10 @@
     </row>
     <row r="425" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>13</v>
-      </c>
-      <c r="B425" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B425" s="6">
+        <v>45</v>
       </c>
       <c r="C425" s="1">
         <v>180</v>
@@ -11788,10 +11782,10 @@
     </row>
     <row r="426" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>13</v>
-      </c>
-      <c r="B426" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B426" s="6">
+        <v>45</v>
       </c>
       <c r="C426" s="1">
         <v>180</v>
@@ -11814,10 +11808,10 @@
     </row>
     <row r="427" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>13</v>
-      </c>
-      <c r="B427" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B427" s="6">
+        <v>45</v>
       </c>
       <c r="C427" s="1">
         <v>180</v>
@@ -11840,10 +11834,10 @@
     </row>
     <row r="428" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>13</v>
-      </c>
-      <c r="B428" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B428" s="6">
+        <v>45</v>
       </c>
       <c r="C428" s="1">
         <v>180</v>
@@ -11866,10 +11860,10 @@
     </row>
     <row r="429" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>13</v>
-      </c>
-      <c r="B429" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B429" s="6">
+        <v>45</v>
       </c>
       <c r="C429" s="1">
         <v>180</v>
@@ -11892,10 +11886,10 @@
     </row>
     <row r="430" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>13</v>
-      </c>
-      <c r="B430" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B430" s="6">
+        <v>45</v>
       </c>
       <c r="C430" s="1">
         <v>180</v>
@@ -11918,10 +11912,10 @@
     </row>
     <row r="431" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>13</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B431" s="6">
+        <v>45</v>
       </c>
       <c r="C431" s="1">
         <v>180</v>
@@ -11944,10 +11938,10 @@
     </row>
     <row r="432" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>13</v>
-      </c>
-      <c r="B432" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B432" s="6">
+        <v>45</v>
       </c>
       <c r="C432" s="1">
         <v>180</v>
@@ -11970,10 +11964,10 @@
     </row>
     <row r="433" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>13</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B433" s="6">
+        <v>45</v>
       </c>
       <c r="C433" s="1">
         <v>180</v>
@@ -11996,10 +11990,10 @@
     </row>
     <row r="434" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>13</v>
-      </c>
-      <c r="B434" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B434" s="6">
+        <v>45</v>
       </c>
       <c r="C434" s="1">
         <v>180</v>
@@ -12022,10 +12016,10 @@
     </row>
     <row r="435" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>13</v>
-      </c>
-      <c r="B435" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B435" s="6">
+        <v>45</v>
       </c>
       <c r="C435" s="1">
         <v>180</v>
@@ -12048,10 +12042,10 @@
     </row>
     <row r="436" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>13</v>
-      </c>
-      <c r="B436" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B436" s="6">
+        <v>45</v>
       </c>
       <c r="C436" s="1">
         <v>180</v>
@@ -12074,10 +12068,10 @@
     </row>
     <row r="437" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>13</v>
-      </c>
-      <c r="B437" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B437" s="6">
+        <v>45</v>
       </c>
       <c r="C437" s="1">
         <v>180</v>
@@ -12100,10 +12094,10 @@
     </row>
     <row r="438" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>13</v>
-      </c>
-      <c r="B438" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B438" s="6">
+        <v>45</v>
       </c>
       <c r="C438" s="1">
         <v>180</v>
@@ -12126,10 +12120,10 @@
     </row>
     <row r="439" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>13</v>
-      </c>
-      <c r="B439" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B439" s="6">
+        <v>45</v>
       </c>
       <c r="C439" s="1">
         <v>180</v>
@@ -12152,10 +12146,10 @@
     </row>
     <row r="440" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>13</v>
-      </c>
-      <c r="B440" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B440" s="6">
+        <v>45</v>
       </c>
       <c r="C440" s="1">
         <v>180</v>
@@ -12178,10 +12172,10 @@
     </row>
     <row r="441" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>13</v>
-      </c>
-      <c r="B441" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B441" s="6">
+        <v>45</v>
       </c>
       <c r="C441" s="1">
         <v>180</v>
@@ -12204,10 +12198,10 @@
     </row>
     <row r="442" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>13</v>
-      </c>
-      <c r="B442" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B442" s="6">
+        <v>45</v>
       </c>
       <c r="C442" s="1">
         <v>180</v>
@@ -12230,10 +12224,10 @@
     </row>
     <row r="443" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>13</v>
-      </c>
-      <c r="B443" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B443" s="6">
+        <v>45</v>
       </c>
       <c r="C443" s="1">
         <v>180</v>
@@ -12256,10 +12250,10 @@
     </row>
     <row r="444" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>13</v>
-      </c>
-      <c r="B444" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B444" s="6">
+        <v>45</v>
       </c>
       <c r="C444" s="1">
         <v>180</v>
@@ -12282,10 +12276,10 @@
     </row>
     <row r="445" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>13</v>
-      </c>
-      <c r="B445" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B445" s="6">
+        <v>45</v>
       </c>
       <c r="C445" s="1">
         <v>180</v>
@@ -12308,10 +12302,10 @@
     </row>
     <row r="446" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>13</v>
-      </c>
-      <c r="B446" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B446" s="6">
+        <v>45</v>
       </c>
       <c r="C446" s="1">
         <v>180</v>
@@ -12334,10 +12328,10 @@
     </row>
     <row r="447" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>13</v>
-      </c>
-      <c r="B447" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B447" s="6">
+        <v>45</v>
       </c>
       <c r="C447" s="1">
         <v>180</v>
@@ -12360,10 +12354,10 @@
     </row>
     <row r="448" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>13</v>
-      </c>
-      <c r="B448" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B448" s="6">
+        <v>45</v>
       </c>
       <c r="C448" s="1">
         <v>180</v>
@@ -12386,10 +12380,10 @@
     </row>
     <row r="449" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>13</v>
-      </c>
-      <c r="B449" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B449" s="6">
+        <v>45</v>
       </c>
       <c r="C449" s="1">
         <v>180</v>
@@ -12412,10 +12406,10 @@
     </row>
     <row r="450" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>13</v>
-      </c>
-      <c r="B450" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B450" s="6">
+        <v>45</v>
       </c>
       <c r="C450" s="1">
         <v>180</v>
@@ -12438,10 +12432,10 @@
     </row>
     <row r="451" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>13</v>
-      </c>
-      <c r="B451" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B451" s="6">
+        <v>45</v>
       </c>
       <c r="C451" s="1">
         <v>180</v>
@@ -12464,10 +12458,10 @@
     </row>
     <row r="452" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>13</v>
-      </c>
-      <c r="B452" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B452" s="6">
+        <v>45</v>
       </c>
       <c r="C452" s="1">
         <v>180</v>
@@ -12490,10 +12484,10 @@
     </row>
     <row r="453" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>13</v>
-      </c>
-      <c r="B453" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B453" s="6">
+        <v>45</v>
       </c>
       <c r="C453" s="1">
         <v>180</v>
@@ -12516,10 +12510,10 @@
     </row>
     <row r="454" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>13</v>
-      </c>
-      <c r="B454" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B454" s="6">
+        <v>45</v>
       </c>
       <c r="C454" s="1">
         <v>180</v>
@@ -12542,10 +12536,10 @@
     </row>
     <row r="455" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>13</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B455" s="6">
+        <v>45</v>
       </c>
       <c r="C455" s="1">
         <v>180</v>
@@ -12568,10 +12562,10 @@
     </row>
     <row r="456" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>13</v>
-      </c>
-      <c r="B456" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B456" s="6">
+        <v>45</v>
       </c>
       <c r="C456" s="1">
         <v>180</v>
@@ -12594,10 +12588,10 @@
     </row>
     <row r="457" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>13</v>
-      </c>
-      <c r="B457" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B457" s="6">
+        <v>45</v>
       </c>
       <c r="C457" s="1">
         <v>180</v>
@@ -12620,10 +12614,10 @@
     </row>
     <row r="458" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>13</v>
-      </c>
-      <c r="B458" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B458" s="6">
+        <v>45</v>
       </c>
       <c r="C458" s="1">
         <v>180</v>
@@ -12646,10 +12640,10 @@
     </row>
     <row r="459" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>13</v>
-      </c>
-      <c r="B459" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B459" s="6">
+        <v>45</v>
       </c>
       <c r="C459" s="1">
         <v>180</v>
@@ -12672,10 +12666,10 @@
     </row>
     <row r="460" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>13</v>
-      </c>
-      <c r="B460" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B460" s="6">
+        <v>45</v>
       </c>
       <c r="C460" s="1">
         <v>180</v>
@@ -12698,10 +12692,10 @@
     </row>
     <row r="461" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>13</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B461" s="6">
+        <v>45</v>
       </c>
       <c r="C461" s="1">
         <v>180</v>
@@ -12724,10 +12718,10 @@
     </row>
     <row r="462" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>13</v>
-      </c>
-      <c r="B462" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B462" s="6">
+        <v>45</v>
       </c>
       <c r="C462" s="1">
         <v>180</v>
@@ -12750,10 +12744,10 @@
     </row>
     <row r="463" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>13</v>
-      </c>
-      <c r="B463" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B463" s="6">
+        <v>45</v>
       </c>
       <c r="C463" s="1">
         <v>180</v>
@@ -12776,10 +12770,10 @@
     </row>
     <row r="464" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>13</v>
-      </c>
-      <c r="B464" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B464" s="6">
+        <v>45</v>
       </c>
       <c r="C464" s="1">
         <v>180</v>
@@ -12802,10 +12796,10 @@
     </row>
     <row r="465" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>13</v>
-      </c>
-      <c r="B465" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B465" s="6">
+        <v>45</v>
       </c>
       <c r="C465" s="1">
         <v>180</v>
@@ -12828,10 +12822,10 @@
     </row>
     <row r="466" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>13</v>
-      </c>
-      <c r="B466" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B466" s="6">
+        <v>45</v>
       </c>
       <c r="C466" s="1">
         <v>180</v>
@@ -12854,10 +12848,10 @@
     </row>
     <row r="467" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>13</v>
-      </c>
-      <c r="B467" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B467" s="6">
+        <v>45</v>
       </c>
       <c r="C467" s="1">
         <v>180</v>
@@ -12880,10 +12874,10 @@
     </row>
     <row r="468" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>13</v>
-      </c>
-      <c r="B468" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B468" s="6">
+        <v>45</v>
       </c>
       <c r="C468" s="1">
         <v>180</v>
@@ -12906,10 +12900,10 @@
     </row>
     <row r="469" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>13</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B469" s="6">
+        <v>45</v>
       </c>
       <c r="C469" s="1">
         <v>180</v>
@@ -12932,10 +12926,10 @@
     </row>
     <row r="470" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>13</v>
-      </c>
-      <c r="B470" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B470" s="6">
+        <v>45</v>
       </c>
       <c r="C470" s="1">
         <v>0</v>
@@ -12958,10 +12952,10 @@
     </row>
     <row r="471" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>13</v>
-      </c>
-      <c r="B471" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B471" s="6">
+        <v>45</v>
       </c>
       <c r="C471" s="1">
         <v>0</v>
@@ -12984,10 +12978,10 @@
     </row>
     <row r="472" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>13</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B472" s="6">
+        <v>45</v>
       </c>
       <c r="C472" s="1">
         <v>0</v>
@@ -13010,10 +13004,10 @@
     </row>
     <row r="473" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>13</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B473" s="6">
+        <v>45</v>
       </c>
       <c r="C473" s="1">
         <v>0</v>
@@ -13036,10 +13030,10 @@
     </row>
     <row r="474" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>13</v>
-      </c>
-      <c r="B474" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B474" s="6">
+        <v>45</v>
       </c>
       <c r="C474" s="1">
         <v>0</v>
@@ -13062,10 +13056,10 @@
     </row>
     <row r="475" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>13</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B475" s="6">
+        <v>45</v>
       </c>
       <c r="C475" s="1">
         <v>0</v>
@@ -13088,10 +13082,10 @@
     </row>
     <row r="476" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>13</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B476" s="6">
+        <v>45</v>
       </c>
       <c r="C476" s="1">
         <v>0</v>
@@ -13114,10 +13108,10 @@
     </row>
     <row r="477" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>13</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B477" s="6">
+        <v>45</v>
       </c>
       <c r="C477" s="1">
         <v>0</v>
@@ -13140,10 +13134,10 @@
     </row>
     <row r="478" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>13</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B478" s="6">
+        <v>45</v>
       </c>
       <c r="C478" s="1">
         <v>0</v>
@@ -13166,10 +13160,10 @@
     </row>
     <row r="479" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>13</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B479" s="6">
+        <v>45</v>
       </c>
       <c r="C479" s="1">
         <v>0</v>
@@ -13192,10 +13186,10 @@
     </row>
     <row r="480" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>13</v>
-      </c>
-      <c r="B480" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B480" s="6">
+        <v>45</v>
       </c>
       <c r="C480" s="1">
         <v>0</v>
@@ -13218,10 +13212,10 @@
     </row>
     <row r="481" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>13</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B481" s="6">
+        <v>45</v>
       </c>
       <c r="C481" s="1">
         <v>0</v>
@@ -13244,10 +13238,10 @@
     </row>
     <row r="482" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>13</v>
-      </c>
-      <c r="B482" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B482" s="6">
+        <v>45</v>
       </c>
       <c r="C482" s="1">
         <v>0</v>
@@ -13270,10 +13264,10 @@
     </row>
     <row r="483" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>13</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B483" s="6">
+        <v>45</v>
       </c>
       <c r="C483" s="1">
         <v>0</v>
@@ -13296,10 +13290,10 @@
     </row>
     <row r="484" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>13</v>
-      </c>
-      <c r="B484" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B484" s="6">
+        <v>45</v>
       </c>
       <c r="C484" s="1">
         <v>0</v>
@@ -13322,10 +13316,10 @@
     </row>
     <row r="485" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>13</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B485" s="6">
+        <v>45</v>
       </c>
       <c r="C485" s="1">
         <v>0</v>
@@ -13348,10 +13342,10 @@
     </row>
     <row r="486" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>13</v>
-      </c>
-      <c r="B486" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B486" s="6">
+        <v>45</v>
       </c>
       <c r="C486" s="1">
         <v>0</v>
@@ -13374,10 +13368,10 @@
     </row>
     <row r="487" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>13</v>
-      </c>
-      <c r="B487" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B487" s="6">
+        <v>45</v>
       </c>
       <c r="C487" s="1">
         <v>0</v>
@@ -13400,10 +13394,10 @@
     </row>
     <row r="488" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>13</v>
-      </c>
-      <c r="B488" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B488" s="6">
+        <v>45</v>
       </c>
       <c r="C488" s="1">
         <v>0</v>
@@ -13426,10 +13420,10 @@
     </row>
     <row r="489" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>13</v>
-      </c>
-      <c r="B489" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B489" s="6">
+        <v>45</v>
       </c>
       <c r="C489" s="1">
         <v>0</v>
@@ -13452,10 +13446,10 @@
     </row>
     <row r="490" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>13</v>
-      </c>
-      <c r="B490" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B490" s="6">
+        <v>45</v>
       </c>
       <c r="C490" s="1">
         <v>0</v>
@@ -13478,10 +13472,10 @@
     </row>
     <row r="491" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>13</v>
-      </c>
-      <c r="B491" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B491" s="6">
+        <v>45</v>
       </c>
       <c r="C491" s="1">
         <v>0</v>
@@ -13504,10 +13498,10 @@
     </row>
     <row r="492" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>13</v>
-      </c>
-      <c r="B492" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B492" s="6">
+        <v>45</v>
       </c>
       <c r="C492" s="1">
         <v>0</v>
@@ -13530,10 +13524,10 @@
     </row>
     <row r="493" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>13</v>
-      </c>
-      <c r="B493" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B493" s="6">
+        <v>45</v>
       </c>
       <c r="C493" s="1">
         <v>0</v>
@@ -13556,10 +13550,10 @@
     </row>
     <row r="494" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>13</v>
-      </c>
-      <c r="B494" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B494" s="6">
+        <v>45</v>
       </c>
       <c r="C494" s="1">
         <v>0</v>
@@ -13582,10 +13576,10 @@
     </row>
     <row r="495" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>13</v>
-      </c>
-      <c r="B495" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B495" s="6">
+        <v>45</v>
       </c>
       <c r="C495" s="1">
         <v>0</v>
@@ -13608,10 +13602,10 @@
     </row>
     <row r="496" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>13</v>
-      </c>
-      <c r="B496" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B496" s="6">
+        <v>45</v>
       </c>
       <c r="C496" s="1">
         <v>0</v>
@@ -13634,10 +13628,10 @@
     </row>
     <row r="497" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>13</v>
-      </c>
-      <c r="B497" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B497" s="6">
+        <v>45</v>
       </c>
       <c r="C497" s="1">
         <v>0</v>
@@ -13660,10 +13654,10 @@
     </row>
     <row r="498" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>13</v>
-      </c>
-      <c r="B498" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B498" s="6">
+        <v>45</v>
       </c>
       <c r="C498" s="1">
         <v>0</v>
@@ -13686,10 +13680,10 @@
     </row>
     <row r="499" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>13</v>
-      </c>
-      <c r="B499" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B499" s="6">
+        <v>45</v>
       </c>
       <c r="C499" s="1">
         <v>0</v>
@@ -13712,10 +13706,10 @@
     </row>
     <row r="500" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>13</v>
-      </c>
-      <c r="B500" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B500" s="6">
+        <v>45</v>
       </c>
       <c r="C500" s="1">
         <v>0</v>
@@ -13738,10 +13732,10 @@
     </row>
     <row r="501" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>13</v>
-      </c>
-      <c r="B501" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B501" s="6">
+        <v>45</v>
       </c>
       <c r="C501" s="1">
         <v>0</v>
@@ -13764,10 +13758,10 @@
     </row>
     <row r="502" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>13</v>
-      </c>
-      <c r="B502" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B502" s="6">
+        <v>45</v>
       </c>
       <c r="C502" s="1">
         <v>0</v>
@@ -13790,10 +13784,10 @@
     </row>
     <row r="503" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>13</v>
-      </c>
-      <c r="B503" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B503" s="6">
+        <v>45</v>
       </c>
       <c r="C503" s="1">
         <v>0</v>
@@ -13816,10 +13810,10 @@
     </row>
     <row r="504" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>13</v>
-      </c>
-      <c r="B504" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B504" s="6">
+        <v>45</v>
       </c>
       <c r="C504" s="1">
         <v>0</v>
@@ -13842,10 +13836,10 @@
     </row>
     <row r="505" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>13</v>
-      </c>
-      <c r="B505" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B505" s="6">
+        <v>45</v>
       </c>
       <c r="C505" s="1">
         <v>0</v>
@@ -13868,10 +13862,10 @@
     </row>
     <row r="506" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>13</v>
-      </c>
-      <c r="B506" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B506" s="6">
+        <v>45</v>
       </c>
       <c r="C506" s="1">
         <v>0</v>
@@ -13894,10 +13888,10 @@
     </row>
     <row r="507" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>13</v>
-      </c>
-      <c r="B507" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B507" s="6">
+        <v>45</v>
       </c>
       <c r="C507" s="1">
         <v>0</v>
@@ -13920,10 +13914,10 @@
     </row>
     <row r="508" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>13</v>
-      </c>
-      <c r="B508" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B508" s="6">
+        <v>45</v>
       </c>
       <c r="C508" s="1">
         <v>0</v>
@@ -13946,10 +13940,10 @@
     </row>
     <row r="509" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>13</v>
-      </c>
-      <c r="B509" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B509" s="6">
+        <v>45</v>
       </c>
       <c r="C509" s="1">
         <v>0</v>
@@ -13972,10 +13966,10 @@
     </row>
     <row r="510" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>13</v>
-      </c>
-      <c r="B510" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B510" s="6">
+        <v>45</v>
       </c>
       <c r="C510" s="1">
         <v>0</v>
@@ -13998,10 +13992,10 @@
     </row>
     <row r="511" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>13</v>
-      </c>
-      <c r="B511" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B511" s="6">
+        <v>45</v>
       </c>
       <c r="C511" s="1">
         <v>0</v>
@@ -14024,10 +14018,10 @@
     </row>
     <row r="512" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>13</v>
-      </c>
-      <c r="B512" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B512" s="6">
+        <v>45</v>
       </c>
       <c r="C512" s="1">
         <v>0</v>
@@ -14050,10 +14044,10 @@
     </row>
     <row r="513" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>13</v>
-      </c>
-      <c r="B513" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B513" s="6">
+        <v>45</v>
       </c>
       <c r="C513" s="1">
         <v>0</v>
@@ -14076,10 +14070,10 @@
     </row>
     <row r="514" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>13</v>
-      </c>
-      <c r="B514" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B514" s="6">
+        <v>45</v>
       </c>
       <c r="C514" s="1">
         <v>0</v>
@@ -14102,10 +14096,10 @@
     </row>
     <row r="515" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>13</v>
-      </c>
-      <c r="B515" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B515" s="6">
+        <v>45</v>
       </c>
       <c r="C515" s="1">
         <v>0</v>
@@ -14128,10 +14122,10 @@
     </row>
     <row r="516" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>13</v>
-      </c>
-      <c r="B516" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B516" s="6">
+        <v>45</v>
       </c>
       <c r="C516" s="1">
         <v>0</v>
@@ -14154,10 +14148,10 @@
     </row>
     <row r="517" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>13</v>
-      </c>
-      <c r="B517" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B517" s="6">
+        <v>45</v>
       </c>
       <c r="C517" s="1">
         <v>0</v>
@@ -14180,10 +14174,10 @@
     </row>
     <row r="518" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>13</v>
-      </c>
-      <c r="B518" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B518" s="6">
+        <v>45</v>
       </c>
       <c r="C518" s="1">
         <v>0</v>
@@ -14206,10 +14200,10 @@
     </row>
     <row r="519" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>13</v>
-      </c>
-      <c r="B519" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B519" s="6">
+        <v>45</v>
       </c>
       <c r="C519" s="1">
         <v>0</v>
@@ -14232,10 +14226,10 @@
     </row>
     <row r="520" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>13</v>
-      </c>
-      <c r="B520" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B520" s="6">
+        <v>45</v>
       </c>
       <c r="C520" s="1">
         <v>0</v>
@@ -14258,10 +14252,10 @@
     </row>
     <row r="521" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>13</v>
-      </c>
-      <c r="B521" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B521" s="6">
+        <v>45</v>
       </c>
       <c r="C521" s="1">
         <v>0</v>
@@ -14284,10 +14278,10 @@
     </row>
     <row r="522" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>13</v>
-      </c>
-      <c r="B522" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B522" s="6">
+        <v>45</v>
       </c>
       <c r="C522" s="1">
         <v>0</v>
@@ -14310,10 +14304,10 @@
     </row>
     <row r="523" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>13</v>
-      </c>
-      <c r="B523" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B523" s="6">
+        <v>45</v>
       </c>
       <c r="C523" s="1">
         <v>0</v>
@@ -14336,10 +14330,10 @@
     </row>
     <row r="524" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>13</v>
-      </c>
-      <c r="B524" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B524" s="6">
+        <v>45</v>
       </c>
       <c r="C524" s="1">
         <v>0</v>
@@ -14362,10 +14356,10 @@
     </row>
     <row r="525" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>13</v>
-      </c>
-      <c r="B525" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B525" s="6">
+        <v>45</v>
       </c>
       <c r="C525" s="1">
         <v>0</v>
@@ -14388,10 +14382,10 @@
     </row>
     <row r="526" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>13</v>
-      </c>
-      <c r="B526" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B526" s="6">
+        <v>45</v>
       </c>
       <c r="C526" s="1">
         <v>0</v>
@@ -14414,10 +14408,10 @@
     </row>
     <row r="527" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>13</v>
-      </c>
-      <c r="B527" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B527" s="6">
+        <v>45</v>
       </c>
       <c r="C527" s="1">
         <v>0</v>
@@ -14440,10 +14434,10 @@
     </row>
     <row r="528" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>13</v>
-      </c>
-      <c r="B528" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B528" s="6">
+        <v>45</v>
       </c>
       <c r="C528" s="1">
         <v>0</v>
@@ -14466,10 +14460,10 @@
     </row>
     <row r="529" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>13</v>
-      </c>
-      <c r="B529" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B529" s="6">
+        <v>45</v>
       </c>
       <c r="C529" s="1">
         <v>0</v>
@@ -14492,10 +14486,10 @@
     </row>
     <row r="530" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>13</v>
-      </c>
-      <c r="B530" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B530" s="6">
+        <v>45</v>
       </c>
       <c r="C530" s="1">
         <v>0</v>
@@ -14518,10 +14512,10 @@
     </row>
     <row r="531" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>13</v>
-      </c>
-      <c r="B531" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B531" s="6">
+        <v>45</v>
       </c>
       <c r="C531" s="1">
         <v>0</v>
@@ -14544,10 +14538,10 @@
     </row>
     <row r="532" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>13</v>
-      </c>
-      <c r="B532" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B532" s="6">
+        <v>45</v>
       </c>
       <c r="C532" s="1">
         <v>0</v>
@@ -14570,10 +14564,10 @@
     </row>
     <row r="533" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>13</v>
-      </c>
-      <c r="B533" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B533" s="6">
+        <v>45</v>
       </c>
       <c r="C533" s="1">
         <v>0</v>
@@ -14596,10 +14590,10 @@
     </row>
     <row r="534" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>13</v>
-      </c>
-      <c r="B534" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B534" s="6">
+        <v>45</v>
       </c>
       <c r="C534" s="1">
         <v>0</v>
@@ -14622,10 +14616,10 @@
     </row>
     <row r="535" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>13</v>
-      </c>
-      <c r="B535" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B535" s="6">
+        <v>45</v>
       </c>
       <c r="C535" s="1">
         <v>0</v>
@@ -14648,10 +14642,10 @@
     </row>
     <row r="536" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>13</v>
-      </c>
-      <c r="B536" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B536" s="6">
+        <v>45</v>
       </c>
       <c r="C536" s="1">
         <v>0</v>
@@ -14674,10 +14668,10 @@
     </row>
     <row r="537" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>13</v>
-      </c>
-      <c r="B537" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B537" s="6">
+        <v>45</v>
       </c>
       <c r="C537" s="1">
         <v>0</v>
@@ -14700,10 +14694,10 @@
     </row>
     <row r="538" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>13</v>
-      </c>
-      <c r="B538" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B538" s="6">
+        <v>45</v>
       </c>
       <c r="C538" s="1">
         <v>0</v>
@@ -14726,10 +14720,10 @@
     </row>
     <row r="539" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>13</v>
-      </c>
-      <c r="B539" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B539" s="6">
+        <v>45</v>
       </c>
       <c r="C539" s="1">
         <v>0</v>
@@ -14752,10 +14746,10 @@
     </row>
     <row r="540" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>13</v>
-      </c>
-      <c r="B540" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B540" s="6">
+        <v>45</v>
       </c>
       <c r="C540" s="1">
         <v>0</v>
@@ -14778,10 +14772,10 @@
     </row>
     <row r="541" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>13</v>
-      </c>
-      <c r="B541" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B541" s="6">
+        <v>45</v>
       </c>
       <c r="C541" s="1">
         <v>0</v>
@@ -14804,10 +14798,10 @@
     </row>
     <row r="542" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>13</v>
-      </c>
-      <c r="B542" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B542" s="6">
+        <v>45</v>
       </c>
       <c r="C542" s="1">
         <v>0</v>
@@ -14830,10 +14824,10 @@
     </row>
     <row r="543" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>13</v>
-      </c>
-      <c r="B543" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B543" s="6">
+        <v>45</v>
       </c>
       <c r="C543" s="1">
         <v>0</v>
@@ -14856,10 +14850,10 @@
     </row>
     <row r="544" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>13</v>
-      </c>
-      <c r="B544" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B544" s="6">
+        <v>45</v>
       </c>
       <c r="C544" s="1">
         <v>0</v>
@@ -14882,10 +14876,10 @@
     </row>
     <row r="545" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>13</v>
-      </c>
-      <c r="B545" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B545" s="6">
+        <v>45</v>
       </c>
       <c r="C545" s="1">
         <v>0</v>
@@ -14908,10 +14902,10 @@
     </row>
     <row r="546" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>13</v>
-      </c>
-      <c r="B546" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B546" s="6">
+        <v>45</v>
       </c>
       <c r="C546" s="1">
         <v>0</v>
@@ -14934,10 +14928,10 @@
     </row>
     <row r="547" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>13</v>
-      </c>
-      <c r="B547" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B547" s="6">
+        <v>45</v>
       </c>
       <c r="C547" s="1">
         <v>0</v>
@@ -14960,10 +14954,10 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>13</v>
-      </c>
-      <c r="B548" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B548" s="6">
+        <v>45</v>
       </c>
       <c r="C548" s="1">
         <v>180</v>
@@ -14986,10 +14980,10 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>13</v>
-      </c>
-      <c r="B549" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B549" s="6">
+        <v>45</v>
       </c>
       <c r="C549" s="1">
         <v>180</v>
@@ -15012,10 +15006,10 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>13</v>
-      </c>
-      <c r="B550" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B550" s="6">
+        <v>45</v>
       </c>
       <c r="C550" s="1">
         <v>180</v>
@@ -15038,10 +15032,10 @@
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>13</v>
-      </c>
-      <c r="B551" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B551" s="6">
+        <v>45</v>
       </c>
       <c r="C551" s="1">
         <v>180</v>
@@ -15064,10 +15058,10 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>13</v>
-      </c>
-      <c r="B552" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B552" s="6">
+        <v>45</v>
       </c>
       <c r="C552" s="1">
         <v>180</v>
@@ -15090,10 +15084,10 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>13</v>
-      </c>
-      <c r="B553" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B553" s="6">
+        <v>45</v>
       </c>
       <c r="C553" s="1">
         <v>180</v>
@@ -15116,10 +15110,10 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>13</v>
-      </c>
-      <c r="B554" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B554" s="6">
+        <v>45</v>
       </c>
       <c r="C554" s="1">
         <v>180</v>
@@ -15142,10 +15136,10 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>13</v>
-      </c>
-      <c r="B555" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B555" s="6">
+        <v>45</v>
       </c>
       <c r="C555" s="1">
         <v>180</v>
@@ -15168,10 +15162,10 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>13</v>
-      </c>
-      <c r="B556" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B556" s="6">
+        <v>45</v>
       </c>
       <c r="C556" s="1">
         <v>180</v>
@@ -15194,10 +15188,10 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>13</v>
-      </c>
-      <c r="B557" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B557" s="6">
+        <v>45</v>
       </c>
       <c r="C557" s="1">
         <v>180</v>
@@ -15220,10 +15214,10 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>13</v>
-      </c>
-      <c r="B558" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B558" s="6">
+        <v>45</v>
       </c>
       <c r="C558" s="1">
         <v>180</v>
@@ -15246,10 +15240,10 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>13</v>
-      </c>
-      <c r="B559" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B559" s="6">
+        <v>45</v>
       </c>
       <c r="C559" s="1">
         <v>180</v>
@@ -15272,10 +15266,10 @@
     </row>
     <row r="560" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>13</v>
-      </c>
-      <c r="B560" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B560" s="6">
+        <v>45</v>
       </c>
       <c r="C560" s="1">
         <v>180</v>
@@ -15298,10 +15292,10 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>13</v>
-      </c>
-      <c r="B561" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B561" s="6">
+        <v>45</v>
       </c>
       <c r="C561" s="1">
         <v>180</v>
@@ -15324,10 +15318,10 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>13</v>
-      </c>
-      <c r="B562" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B562" s="6">
+        <v>45</v>
       </c>
       <c r="C562" s="1">
         <v>180</v>
@@ -15350,10 +15344,10 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>13</v>
-      </c>
-      <c r="B563" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B563" s="6">
+        <v>45</v>
       </c>
       <c r="C563" s="1">
         <v>180</v>
@@ -15376,10 +15370,10 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>13</v>
-      </c>
-      <c r="B564" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B564" s="6">
+        <v>45</v>
       </c>
       <c r="C564" s="1">
         <v>180</v>
@@ -15402,10 +15396,10 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>13</v>
-      </c>
-      <c r="B565" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B565" s="6">
+        <v>45</v>
       </c>
       <c r="C565" s="1">
         <v>180</v>
@@ -15428,10 +15422,10 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>13</v>
-      </c>
-      <c r="B566" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B566" s="6">
+        <v>45</v>
       </c>
       <c r="C566" s="1">
         <v>180</v>
@@ -15454,10 +15448,10 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>13</v>
-      </c>
-      <c r="B567" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B567" s="6">
+        <v>45</v>
       </c>
       <c r="C567" s="1">
         <v>180</v>
@@ -15480,10 +15474,10 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>13</v>
-      </c>
-      <c r="B568" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B568" s="6">
+        <v>45</v>
       </c>
       <c r="C568" s="1">
         <v>180</v>
@@ -15506,10 +15500,10 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>13</v>
-      </c>
-      <c r="B569" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B569" s="6">
+        <v>45</v>
       </c>
       <c r="C569" s="1">
         <v>180</v>
@@ -15532,10 +15526,10 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>13</v>
-      </c>
-      <c r="B570" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B570" s="6">
+        <v>45</v>
       </c>
       <c r="C570" s="1">
         <v>180</v>
@@ -15558,10 +15552,10 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>13</v>
-      </c>
-      <c r="B571" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B571" s="6">
+        <v>45</v>
       </c>
       <c r="C571" s="1">
         <v>180</v>
@@ -15584,10 +15578,10 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>13</v>
-      </c>
-      <c r="B572" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B572" s="6">
+        <v>45</v>
       </c>
       <c r="C572" s="1">
         <v>180</v>
@@ -15610,10 +15604,10 @@
     </row>
     <row r="573" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>13</v>
-      </c>
-      <c r="B573" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B573" s="6">
+        <v>45</v>
       </c>
       <c r="C573" s="1">
         <v>180</v>
@@ -15636,10 +15630,10 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>13</v>
-      </c>
-      <c r="B574" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B574" s="6">
+        <v>45</v>
       </c>
       <c r="C574" s="1">
         <v>180</v>
@@ -15662,10 +15656,10 @@
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>13</v>
-      </c>
-      <c r="B575" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B575" s="6">
+        <v>45</v>
       </c>
       <c r="C575" s="1">
         <v>180</v>
@@ -15688,10 +15682,10 @@
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>13</v>
-      </c>
-      <c r="B576" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B576" s="6">
+        <v>45</v>
       </c>
       <c r="C576" s="1">
         <v>180</v>
@@ -15714,10 +15708,10 @@
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>13</v>
-      </c>
-      <c r="B577" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B577" s="6">
+        <v>45</v>
       </c>
       <c r="C577" s="1">
         <v>180</v>
@@ -15740,10 +15734,10 @@
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>13</v>
-      </c>
-      <c r="B578" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B578" s="6">
+        <v>45</v>
       </c>
       <c r="C578" s="1">
         <v>180</v>
@@ -15766,10 +15760,10 @@
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>13</v>
-      </c>
-      <c r="B579" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B579" s="6">
+        <v>45</v>
       </c>
       <c r="C579" s="1">
         <v>180</v>
@@ -15792,10 +15786,10 @@
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>13</v>
-      </c>
-      <c r="B580" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B580" s="6">
+        <v>45</v>
       </c>
       <c r="C580" s="1">
         <v>180</v>
@@ -15818,10 +15812,10 @@
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>13</v>
-      </c>
-      <c r="B581" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B581" s="6">
+        <v>45</v>
       </c>
       <c r="C581" s="1">
         <v>180</v>
@@ -15844,10 +15838,10 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>13</v>
-      </c>
-      <c r="B582" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B582" s="6">
+        <v>45</v>
       </c>
       <c r="C582" s="1">
         <v>180</v>
@@ -15870,10 +15864,10 @@
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>13</v>
-      </c>
-      <c r="B583" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B583" s="6">
+        <v>45</v>
       </c>
       <c r="C583" s="1">
         <v>180</v>
@@ -15896,10 +15890,10 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>13</v>
-      </c>
-      <c r="B584" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B584" s="6">
+        <v>45</v>
       </c>
       <c r="C584" s="1">
         <v>180</v>
@@ -15922,10 +15916,10 @@
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>13</v>
-      </c>
-      <c r="B585" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B585" s="6">
+        <v>45</v>
       </c>
       <c r="C585" s="1">
         <v>180</v>
@@ -15948,10 +15942,10 @@
     </row>
     <row r="586" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>13</v>
-      </c>
-      <c r="B586" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B586" s="6">
+        <v>45</v>
       </c>
       <c r="C586" s="1">
         <v>180</v>
@@ -15974,10 +15968,10 @@
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>13</v>
-      </c>
-      <c r="B587" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B587" s="6">
+        <v>45</v>
       </c>
       <c r="C587" s="1">
         <v>180</v>
@@ -16000,10 +15994,10 @@
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>13</v>
-      </c>
-      <c r="B588" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B588" s="6">
+        <v>45</v>
       </c>
       <c r="C588" s="1">
         <v>180</v>
@@ -16026,10 +16020,10 @@
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>13</v>
-      </c>
-      <c r="B589" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B589" s="6">
+        <v>45</v>
       </c>
       <c r="C589" s="1">
         <v>180</v>
@@ -16052,10 +16046,10 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>13</v>
-      </c>
-      <c r="B590" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B590" s="6">
+        <v>45</v>
       </c>
       <c r="C590" s="1">
         <v>180</v>
@@ -16078,10 +16072,10 @@
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>13</v>
-      </c>
-      <c r="B591" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B591" s="6">
+        <v>45</v>
       </c>
       <c r="C591" s="1">
         <v>180</v>
@@ -16104,10 +16098,10 @@
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>13</v>
-      </c>
-      <c r="B592" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B592" s="6">
+        <v>45</v>
       </c>
       <c r="C592" s="1">
         <v>180</v>
@@ -16130,10 +16124,10 @@
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>13</v>
-      </c>
-      <c r="B593" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B593" s="6">
+        <v>45</v>
       </c>
       <c r="C593" s="1">
         <v>180</v>
@@ -16156,10 +16150,10 @@
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>13</v>
-      </c>
-      <c r="B594" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B594" s="6">
+        <v>45</v>
       </c>
       <c r="C594" s="1">
         <v>180</v>
@@ -16182,10 +16176,10 @@
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>13</v>
-      </c>
-      <c r="B595" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B595" s="6">
+        <v>45</v>
       </c>
       <c r="C595" s="1">
         <v>180</v>
@@ -16208,10 +16202,10 @@
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>13</v>
-      </c>
-      <c r="B596" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B596" s="6">
+        <v>45</v>
       </c>
       <c r="C596" s="1">
         <v>180</v>
@@ -16234,10 +16228,10 @@
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>13</v>
-      </c>
-      <c r="B597" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B597" s="6">
+        <v>45</v>
       </c>
       <c r="C597" s="1">
         <v>180</v>
@@ -16260,10 +16254,10 @@
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>13</v>
-      </c>
-      <c r="B598" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B598" s="6">
+        <v>45</v>
       </c>
       <c r="C598" s="1">
         <v>180</v>
@@ -16286,10 +16280,10 @@
     </row>
     <row r="599" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>13</v>
-      </c>
-      <c r="B599" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B599" s="6">
+        <v>45</v>
       </c>
       <c r="C599" s="1">
         <v>180</v>
@@ -16312,10 +16306,10 @@
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>13</v>
-      </c>
-      <c r="B600" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B600" s="6">
+        <v>45</v>
       </c>
       <c r="C600" s="1">
         <v>180</v>
@@ -16338,10 +16332,10 @@
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>13</v>
-      </c>
-      <c r="B601" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B601" s="6">
+        <v>45</v>
       </c>
       <c r="C601" s="1">
         <v>180</v>
@@ -16364,10 +16358,10 @@
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>13</v>
-      </c>
-      <c r="B602" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B602" s="6">
+        <v>45</v>
       </c>
       <c r="C602" s="1">
         <v>180</v>
@@ -16390,10 +16384,10 @@
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>13</v>
-      </c>
-      <c r="B603" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B603" s="6">
+        <v>45</v>
       </c>
       <c r="C603" s="1">
         <v>180</v>
@@ -16416,10 +16410,10 @@
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>13</v>
-      </c>
-      <c r="B604" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B604" s="6">
+        <v>45</v>
       </c>
       <c r="C604" s="1">
         <v>180</v>
@@ -16442,10 +16436,10 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>13</v>
-      </c>
-      <c r="B605" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B605" s="6">
+        <v>45</v>
       </c>
       <c r="C605" s="1">
         <v>180</v>
@@ -16468,10 +16462,10 @@
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>13</v>
-      </c>
-      <c r="B606" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B606" s="6">
+        <v>45</v>
       </c>
       <c r="C606" s="1">
         <v>180</v>
@@ -16494,10 +16488,10 @@
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>13</v>
-      </c>
-      <c r="B607" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B607" s="6">
+        <v>45</v>
       </c>
       <c r="C607" s="1">
         <v>180</v>
@@ -16520,10 +16514,10 @@
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>13</v>
-      </c>
-      <c r="B608" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B608" s="6">
+        <v>45</v>
       </c>
       <c r="C608" s="1">
         <v>180</v>
@@ -16546,10 +16540,10 @@
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>13</v>
-      </c>
-      <c r="B609" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B609" s="6">
+        <v>45</v>
       </c>
       <c r="C609" s="1">
         <v>180</v>
@@ -16572,10 +16566,10 @@
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>13</v>
-      </c>
-      <c r="B610" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B610" s="6">
+        <v>45</v>
       </c>
       <c r="C610" s="1">
         <v>180</v>
@@ -16598,10 +16592,10 @@
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>13</v>
-      </c>
-      <c r="B611" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B611" s="6">
+        <v>45</v>
       </c>
       <c r="C611" s="1">
         <v>180</v>
@@ -16624,10 +16618,10 @@
     </row>
     <row r="612" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>13</v>
-      </c>
-      <c r="B612" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B612" s="6">
+        <v>45</v>
       </c>
       <c r="C612" s="1">
         <v>180</v>
@@ -16650,10 +16644,10 @@
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>13</v>
-      </c>
-      <c r="B613" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B613" s="6">
+        <v>45</v>
       </c>
       <c r="C613" s="1">
         <v>180</v>
@@ -16676,10 +16670,10 @@
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>13</v>
-      </c>
-      <c r="B614" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B614" s="6">
+        <v>45</v>
       </c>
       <c r="C614" s="1">
         <v>180</v>
@@ -16702,10 +16696,10 @@
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>13</v>
-      </c>
-      <c r="B615" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B615" s="6">
+        <v>45</v>
       </c>
       <c r="C615" s="1">
         <v>180</v>
@@ -16728,10 +16722,10 @@
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>13</v>
-      </c>
-      <c r="B616" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B616" s="6">
+        <v>45</v>
       </c>
       <c r="C616" s="1">
         <v>180</v>
@@ -16754,10 +16748,10 @@
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>13</v>
-      </c>
-      <c r="B617" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B617" s="6">
+        <v>45</v>
       </c>
       <c r="C617" s="1">
         <v>180</v>
@@ -16780,10 +16774,10 @@
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>13</v>
-      </c>
-      <c r="B618" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B618" s="6">
+        <v>45</v>
       </c>
       <c r="C618" s="1">
         <v>180</v>
@@ -16806,10 +16800,10 @@
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>13</v>
-      </c>
-      <c r="B619" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B619" s="6">
+        <v>45</v>
       </c>
       <c r="C619" s="1">
         <v>180</v>
@@ -16832,10 +16826,10 @@
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>13</v>
-      </c>
-      <c r="B620" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B620" s="6">
+        <v>45</v>
       </c>
       <c r="C620" s="1">
         <v>180</v>
@@ -16858,10 +16852,10 @@
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>13</v>
-      </c>
-      <c r="B621" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B621" s="6">
+        <v>45</v>
       </c>
       <c r="C621" s="1">
         <v>180</v>
@@ -16884,10 +16878,10 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>13</v>
-      </c>
-      <c r="B622" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B622" s="6">
+        <v>45</v>
       </c>
       <c r="C622" s="1">
         <v>180</v>
@@ -16910,10 +16904,10 @@
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>13</v>
-      </c>
-      <c r="B623" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B623" s="6">
+        <v>45</v>
       </c>
       <c r="C623" s="1">
         <v>180</v>
@@ -16936,10 +16930,10 @@
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>13</v>
-      </c>
-      <c r="B624" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B624" s="6">
+        <v>45</v>
       </c>
       <c r="C624" s="1">
         <v>180</v>
@@ -16962,10 +16956,10 @@
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>13</v>
-      </c>
-      <c r="B625" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B625" s="6">
+        <v>45</v>
       </c>
       <c r="C625" s="1">
         <v>180</v>
@@ -16993,6 +16987,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe">N4XJ6CXEYHH6-631025465-499117</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe">
+      <Url>https://artedrone.sharepoint.com/sites/SharepointArtedrone/_layouts/15/DocIdRedir.aspx?ID=N4XJ6CXEYHH6-631025465-499117</Url>
+      <Description>N4XJ6CXEYHH6-631025465-499117</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f867db0-d780-48fe-a112-754d1799c19e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005980ED226863A74FA2F9CA9139548579" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0242ed82f3266fd060e887ae3e26cb2b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79361c6c-fea3-4edf-b4fa-5821e39e9bfe" xmlns:ns3="7f867db0-d780-48fe-a112-754d1799c19e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22c66529a84d53b789930f0e5aa4c2cf" ns2:_="" ns3:_="">
     <xsd:import namespace="79361c6c-fea3-4edf-b4fa-5821e39e9bfe"/>
@@ -17258,32 +17268,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe">N4XJ6CXEYHH6-631025465-499117</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe">
-      <Url>https://artedrone.sharepoint.com/sites/SharepointArtedrone/_layouts/15/DocIdRedir.aspx?ID=N4XJ6CXEYHH6-631025465-499117</Url>
-      <Description>N4XJ6CXEYHH6-631025465-499117</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f867db0-d780-48fe-a112-754d1799c19e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -17333,11 +17318,16 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B93F27-2AD8-405E-9843-E7344324D029}"/>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F56340EC-2E80-4BEE-AA2C-1B622E4607C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17348,18 +17338,37 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B93F27-2AD8-405E-9843-E7344324D029}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="79361c6c-fea3-4edf-b4fa-5821e39e9bfe"/>
+    <ds:schemaRef ds:uri="7f867db0-d780-48fe-a112-754d1799c19e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7855C3A7-43F2-4E39-B3EE-8D5AE289D659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8128331-F855-46C9-83E5-1081B8762C26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7855C3A7-43F2-4E39-B3EE-8D5AE289D659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>